--- a/public/Bank of Baroda_Governance.xlsx
+++ b/public/Bank of Baroda_Governance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\Bank of Baroda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50306C3B-78E0-480C-BF4B-9438D2C8D5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Matrix-KMP'!$A$1:$AZ$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Standalone '!$A$1:$AL$211</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="949">
   <si>
     <t>Key Issues</t>
   </si>
@@ -3165,24 +3158,6 @@
     <t>30136_2019_AUDC007</t>
   </si>
   <si>
-    <t>5. INSTRUCTIONS FOR THE MEMBERS FOR ATTENDING THE e-AGM THROUGH VIDEO CONFERENCING: ; Shareholders who would like to express their views/
-ask questions during the meeting may log into https://
-evoting.karvy.com/ and click on “Post your Queries”
-and post their queries/views/questions in the window
-provided by mentioning the name, demat account
-number/folio number, email id and mobile number. ; Members intending to speak and raise questions at
-the AGM, may log into https://evoting.karvy.com/
-and click on “Speaker Registration” by mentioning
-the demat account number/folio number, city, email id,
-mobile number and submit. A reference number shall
-be displayed on the screen which may be preserved
-for recalling during the Q&amp;A session in the e-AGM
-meeting.</t>
-  </si>
-  <si>
-    <t>3, 24, 325</t>
-  </si>
-  <si>
     <t>30136_2020_BUSC001</t>
   </si>
   <si>
@@ -3507,22 +3482,6 @@
     <t>30136_2019_BUSP007</t>
   </si>
   <si>
-    <t>SECRETARIAL AUDIT
-The Bank has appointed M/s. Ragini Chokshi &amp; Co, Practicing
-Company Secretaries for Annual Secretarial Audit Report
-and Annual Secretarial Compliance Report for the year
-ended 31.03.2020. Annual Secretarial Audit Report has been
-annexed hereto.</t>
-  </si>
-  <si>
-    <t>Secretarial Audit
-Bank has appointed M/s. Ragini Chokshi &amp; Co. Practicing
-Company Secretaries for Annual Secretarial Audit Report and
-Annual Secreterial Compliance Report for the year ended
-31.03.2019. Annual Secretarial Audit Report has been annexed
-herewith</t>
-  </si>
-  <si>
     <t>Voting Rights:
 In terms of sub-section (2E) of Section 3 of the Banking
 Companies (Acquisitions &amp; Transfer of Undertakings)
@@ -3569,11 +3528,23 @@
 Director as its Chairman. The dates of the meetings and
 attendance of the Directors are as under:</t>
   </si>
+  <si>
+    <t>Appointment of Proxy: A SHAREHOLDER ENTITLED TO ATTEND AND VOTE AT THE MEETING IS ENTITLED TO APPOINT A PROXY (OTHER THAN AN OFFICER OR AN EMPLOYEE OF THE BANK) TO ATTEND AND VOTE INSTEAD OF HIMSELF/HERSELF AND THE PROXY NEED NOT BE A SHAREHOLDER OF THE BANK. No instrument of Proxy shall be valid unless it is in Form “B” as annexed to this Notice and also available on Bank’s website. The Proxy, in order to be effective, must be received at Head Office of the Bank situated at Bank of Baroda, KYC-AML Department, 7th Floor, Baroda Bhavan, R. S. No. 576, R C Dutt Road, Opp. Centre Point, Alkapuri, Vadodara -390007 not less than four days before the date of meeting i.e. on or before 4.00 p.m. on Friday, 21st June, 2019 together with the Power of Attorney or other authority, if any, under which it is signed or a copy of that Power of Attorney or other authority certified as a true copy by a Notary Public or a Magistrate unless such Power of Attorney or other authority has been previously deposited and registered with the Bank.</t>
+  </si>
+  <si>
+    <t>Notice of annual general meeting_2019</t>
+  </si>
+  <si>
+    <t>The Bank follows a non-discriminatory and equal opportunity policy for all its employees. Bank is transparent in all issues relating to promotion, career path, transfer policy and employee benefit / welfare schemes. The Bank has put in place ‘Job Roles’ for visually impaired employees. Further, in order to create a more diverse workplace, Bank has been progressively increasing its recruitment of women employees. The percentage of women in the overall staff composition has increased to 25.6% in FY 2020. In order to retain women employees at all levels and in recognition of the concomitant responsibilities of women, Bank has put in place various facilities to support women employees such as sabbatical leave, health check-up programme for women employees, establishment of crèche facility among other initiatives.</t>
+  </si>
+  <si>
+    <t>The Bank follows a non-discriminatory and equal opportunity policy for all its employees. The Bank is transparent in all issues relating to promotion, career path, transfer policy and employee benefit / welfare schemes. The Bank has also introduced ‘Job Roles’ for visually impaired employees. Further, the Bank has been increasing its recruitment of women employees. The percentage of women in the overall staff composition has increased to 23.7% in FY 2019 from 23.0% in FY 2018 and 22.7% in FY 2017. In order to retain women employees at all levels and in recognition of the concomitant responsibilities of women, the Bank has also put in place various facilities to support women employees such as sabbatical leave and health check-up programmes for women employees among other initiatives. Besides, a day-care crèche facility has been operationalised as mentioned earlier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -4042,7 +4013,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4439,6 +4410,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4467,24 +4456,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="69">
@@ -5487,48 +5464,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="160" t="s">
         <v>714</v>
       </c>
-      <c r="H1" s="169" t="s">
+      <c r="H1" s="162" t="s">
         <v>715</v>
       </c>
     </row>
@@ -5536,7 +5513,7 @@
       <c r="A2" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="163" t="s">
         <v>753</v>
       </c>
       <c r="C2" s="19">
@@ -5555,7 +5532,7 @@
         <v>752</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -5563,7 +5540,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$2:$A$502</xm:f>
           </x14:formula1>
@@ -5576,16 +5553,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A502"/>
   <sheetViews>
     <sheetView topLeftCell="A489" workbookViewId="0">
       <selection sqref="A1:A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="107.25" customWidth="1"/>
+    <col min="1" max="1" width="107.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5598,12 +5575,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60">
+    <row r="3" spans="1:1" ht="57.6">
       <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="28.8">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5633,7 +5610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45">
+    <row r="10" spans="1:1" ht="43.2">
       <c r="A10" s="12" t="s">
         <v>75</v>
       </c>
@@ -5663,7 +5640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="28.8">
       <c r="A16" s="12" t="s">
         <v>81</v>
       </c>
@@ -5688,7 +5665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="28.8">
       <c r="A21" s="12" t="s">
         <v>81</v>
       </c>
@@ -5733,12 +5710,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:1" ht="28.8">
       <c r="A30" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="60">
+    <row r="31" spans="1:1" ht="57.6">
       <c r="A31" s="12" t="s">
         <v>69</v>
       </c>
@@ -5763,7 +5740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30">
+    <row r="36" spans="1:1">
       <c r="A36" s="12" t="s">
         <v>95</v>
       </c>
@@ -5818,7 +5795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30">
+    <row r="47" spans="1:1" ht="28.8">
       <c r="A47" s="12" t="s">
         <v>101</v>
       </c>
@@ -5833,7 +5810,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="30">
+    <row r="50" spans="1:1" ht="28.8">
       <c r="A50" s="12" t="s">
         <v>103</v>
       </c>
@@ -5928,7 +5905,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="45">
+    <row r="69" spans="1:1" ht="28.8">
       <c r="A69" s="12" t="s">
         <v>113</v>
       </c>
@@ -6053,7 +6030,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="28.8">
       <c r="A94" s="12" t="s">
         <v>128</v>
       </c>
@@ -6083,7 +6060,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30">
+    <row r="100" spans="1:1" ht="28.8">
       <c r="A100" s="12" t="s">
         <v>131</v>
       </c>
@@ -6098,7 +6075,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="45">
+    <row r="103" spans="1:1" ht="28.8">
       <c r="A103" s="12" t="s">
         <v>113</v>
       </c>
@@ -6138,7 +6115,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="30">
+    <row r="111" spans="1:1" ht="28.8">
       <c r="A111" s="12" t="s">
         <v>135</v>
       </c>
@@ -6193,7 +6170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="30">
+    <row r="122" spans="1:1" ht="28.8">
       <c r="A122" s="12" t="s">
         <v>103</v>
       </c>
@@ -6293,7 +6270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="45">
+    <row r="142" spans="1:1" ht="43.2">
       <c r="A142" s="12" t="s">
         <v>148</v>
       </c>
@@ -6323,7 +6300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="30">
+    <row r="148" spans="1:1" ht="28.8">
       <c r="A148" s="12" t="s">
         <v>91</v>
       </c>
@@ -6373,7 +6350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="30">
+    <row r="158" spans="1:1" ht="28.8">
       <c r="A158" s="12" t="s">
         <v>81</v>
       </c>
@@ -6483,7 +6460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="30">
+    <row r="180" spans="1:1" ht="28.8">
       <c r="A180" s="12" t="s">
         <v>162</v>
       </c>
@@ -6503,7 +6480,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="30">
+    <row r="184" spans="1:1" ht="28.8">
       <c r="A184" s="12" t="s">
         <v>81</v>
       </c>
@@ -6533,7 +6510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="30">
+    <row r="190" spans="1:1" ht="28.8">
       <c r="A190" s="12" t="s">
         <v>128</v>
       </c>
@@ -6598,7 +6575,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="75">
+    <row r="203" spans="1:1" ht="72">
       <c r="A203" s="12" t="s">
         <v>169</v>
       </c>
@@ -6618,7 +6595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="45">
+    <row r="207" spans="1:1" ht="28.8">
       <c r="A207" s="12" t="s">
         <v>113</v>
       </c>
@@ -6713,7 +6690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="30">
+    <row r="226" spans="1:1">
       <c r="A226" s="12" t="s">
         <v>95</v>
       </c>
@@ -6768,7 +6745,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="45">
+    <row r="237" spans="1:1" ht="28.8">
       <c r="A237" s="12" t="s">
         <v>113</v>
       </c>
@@ -6788,7 +6765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="30">
+    <row r="241" spans="1:1" ht="28.8">
       <c r="A241" s="12" t="s">
         <v>81</v>
       </c>
@@ -6873,7 +6850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="30">
+    <row r="258" spans="1:1" ht="28.8">
       <c r="A258" s="12" t="s">
         <v>187</v>
       </c>
@@ -6893,7 +6870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="30">
+    <row r="262" spans="1:1" ht="28.8">
       <c r="A262" s="12" t="s">
         <v>187</v>
       </c>
@@ -6943,7 +6920,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="30">
+    <row r="272" spans="1:1">
       <c r="A272" s="12" t="s">
         <v>95</v>
       </c>
@@ -7023,7 +7000,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="30">
+    <row r="288" spans="1:1" ht="28.8">
       <c r="A288" s="12" t="s">
         <v>197</v>
       </c>
@@ -7083,7 +7060,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="30">
+    <row r="300" spans="1:1" ht="28.8">
       <c r="A300" s="12" t="s">
         <v>81</v>
       </c>
@@ -7128,7 +7105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="45">
+    <row r="309" spans="1:1" ht="28.8">
       <c r="A309" s="12" t="s">
         <v>113</v>
       </c>
@@ -7173,7 +7150,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="30">
+    <row r="318" spans="1:1" ht="28.8">
       <c r="A318" s="12" t="s">
         <v>208</v>
       </c>
@@ -7233,7 +7210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="45">
+    <row r="330" spans="1:1" ht="43.2">
       <c r="A330" s="12" t="s">
         <v>75</v>
       </c>
@@ -7338,7 +7315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="30">
+    <row r="351" spans="1:1">
       <c r="A351" s="12" t="s">
         <v>95</v>
       </c>
@@ -7368,7 +7345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="30">
+    <row r="357" spans="1:1" ht="28.8">
       <c r="A357" s="12" t="s">
         <v>81</v>
       </c>
@@ -7488,7 +7465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="30">
+    <row r="381" spans="1:1" ht="28.8">
       <c r="A381" s="12" t="s">
         <v>227</v>
       </c>
@@ -7523,7 +7500,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="45">
+    <row r="388" spans="1:1" ht="28.8">
       <c r="A388" s="12" t="s">
         <v>113</v>
       </c>
@@ -7613,7 +7590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="60">
+    <row r="406" spans="1:1" ht="57.6">
       <c r="A406" s="12" t="s">
         <v>69</v>
       </c>
@@ -7758,7 +7735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="45">
+    <row r="435" spans="1:1" ht="28.8">
       <c r="A435" s="12" t="s">
         <v>244</v>
       </c>
@@ -7793,7 +7770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="30">
+    <row r="442" spans="1:1" ht="28.8">
       <c r="A442" s="12" t="s">
         <v>246</v>
       </c>
@@ -7893,7 +7870,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="30">
+    <row r="462" spans="1:1" ht="28.8">
       <c r="A462" s="12" t="s">
         <v>227</v>
       </c>
@@ -7993,7 +7970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="30">
+    <row r="482" spans="1:1" ht="28.8">
       <c r="A482" s="12" t="s">
         <v>256</v>
       </c>
@@ -8008,7 +7985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="30">
+    <row r="485" spans="1:1" ht="28.8">
       <c r="A485" s="12" t="s">
         <v>208</v>
       </c>
@@ -8038,7 +8015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="30">
+    <row r="491" spans="1:1" ht="28.8">
       <c r="A491" s="12" t="s">
         <v>187</v>
       </c>
@@ -8104,56 +8081,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView topLeftCell="I52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="N216" sqref="N216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="57" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" style="57" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="57" customWidth="1"/>
     <col min="3" max="3" width="12" style="57" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="57" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="57" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="57"/>
-    <col min="9" max="9" width="16.625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="81" customWidth="1"/>
-    <col min="11" max="11" width="29.75" style="57" customWidth="1"/>
-    <col min="12" max="12" width="31" style="57" customWidth="1"/>
-    <col min="13" max="13" width="32" style="57" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="57"/>
+    <col min="9" max="9" width="5.296875" style="57" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="20.69921875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="19.09765625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" style="57" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="81" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="57" customWidth="1"/>
-    <col min="16" max="16" width="19.125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="19.09765625" style="57" customWidth="1"/>
     <col min="17" max="17" width="16" style="57" customWidth="1"/>
     <col min="18" max="18" width="22.5" style="57" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="57" customWidth="1"/>
-    <col min="20" max="20" width="30.25" style="57" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="57" customWidth="1"/>
-    <col min="22" max="22" width="23.75" style="67" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" style="57" customWidth="1"/>
+    <col min="20" max="20" width="30.19921875" style="57" customWidth="1"/>
+    <col min="21" max="21" width="22.3984375" style="57" customWidth="1"/>
+    <col min="22" max="22" width="23.69921875" style="67" customWidth="1"/>
     <col min="23" max="23" width="24.5" style="57" customWidth="1"/>
-    <col min="24" max="24" width="35.75" style="57" customWidth="1"/>
-    <col min="25" max="25" width="28.75" style="57" customWidth="1"/>
-    <col min="26" max="26" width="31.25" style="57" customWidth="1"/>
-    <col min="27" max="27" width="25.25" style="57" customWidth="1"/>
+    <col min="24" max="24" width="35.69921875" style="57" customWidth="1"/>
+    <col min="25" max="25" width="28.69921875" style="57" customWidth="1"/>
+    <col min="26" max="26" width="31.19921875" style="57" customWidth="1"/>
+    <col min="27" max="27" width="25.19921875" style="57" customWidth="1"/>
     <col min="28" max="28" width="35.5" style="57" customWidth="1"/>
-    <col min="29" max="29" width="10.75" style="57"/>
-    <col min="30" max="30" width="31.75" style="57" customWidth="1"/>
+    <col min="29" max="29" width="10.69921875" style="57"/>
+    <col min="30" max="30" width="31.69921875" style="57" customWidth="1"/>
     <col min="31" max="31" width="28.5" style="57" customWidth="1"/>
-    <col min="32" max="32" width="25.25" style="57" customWidth="1"/>
+    <col min="32" max="32" width="25.19921875" style="57" customWidth="1"/>
     <col min="33" max="33" width="26" style="57" customWidth="1"/>
-    <col min="34" max="35" width="10.75" style="57"/>
-    <col min="36" max="36" width="24.25" style="57" customWidth="1"/>
+    <col min="34" max="35" width="10.69921875" style="57"/>
+    <col min="36" max="36" width="24.19921875" style="57" customWidth="1"/>
     <col min="37" max="37" width="26" style="57" customWidth="1"/>
     <col min="38" max="38" width="37" style="57" customWidth="1"/>
-    <col min="39" max="16384" width="10.75" style="57"/>
+    <col min="39" max="16384" width="10.69921875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:38" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
@@ -8247,7 +8228,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:38" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="141" t="s">
         <v>579</v>
       </c>
@@ -8291,7 +8272,7 @@
         <v>44027</v>
       </c>
       <c r="O2" s="145" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="P2" s="145" t="s">
         <v>776</v>
@@ -8306,7 +8287,7 @@
         <v>776</v>
       </c>
       <c r="T2" s="145" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U2" s="147"/>
       <c r="V2" s="148" t="s">
@@ -8316,7 +8297,7 @@
         <v>47</v>
       </c>
       <c r="X2" s="145" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="Y2" s="145"/>
       <c r="Z2" s="150"/>
@@ -8328,13 +8309,13 @@
       </c>
       <c r="AF2" s="152"/>
       <c r="AG2" s="153"/>
-      <c r="AJ2" s="160" t="s">
+      <c r="AJ2" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="162"/>
-    </row>
-    <row r="3" spans="1:38" s="134" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="168"/>
+    </row>
+    <row r="3" spans="1:38" s="134" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="125" t="s">
         <v>579</v>
       </c>
@@ -8378,7 +8359,7 @@
         <v>44027</v>
       </c>
       <c r="O3" s="95" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="P3" s="95" t="s">
         <v>776</v>
@@ -8393,7 +8374,7 @@
         <v>776</v>
       </c>
       <c r="T3" s="145" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U3" s="132"/>
       <c r="V3" s="115" t="s">
@@ -8403,7 +8384,7 @@
         <v>39</v>
       </c>
       <c r="X3" s="154" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Y3" s="95"/>
       <c r="Z3" s="133"/>
@@ -8417,7 +8398,7 @@
       <c r="AK3" s="157"/>
       <c r="AL3" s="157"/>
     </row>
-    <row r="4" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>579</v>
       </c>
@@ -8476,7 +8457,7 @@
         <v>776</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="U4" s="63"/>
       <c r="V4" s="66" t="s">
@@ -8510,7 +8491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>579</v>
       </c>
@@ -8569,7 +8550,7 @@
         <v>776</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="U5" s="63"/>
       <c r="V5" s="66" t="s">
@@ -8606,7 +8587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>579</v>
       </c>
@@ -8690,7 +8671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>579</v>
       </c>
@@ -8774,7 +8755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>579</v>
       </c>
@@ -8858,7 +8839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>579</v>
       </c>
@@ -8901,7 +8882,7 @@
       <c r="N9" s="80">
         <v>44027</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="120" t="s">
         <v>818</v>
       </c>
       <c r="P9" s="27" t="s">
@@ -8917,7 +8898,7 @@
         <v>776</v>
       </c>
       <c r="T9" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U9" s="63"/>
       <c r="V9" s="66" t="s">
@@ -8954,7 +8935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="53" t="s">
         <v>579</v>
       </c>
@@ -9038,7 +9019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="53" t="s">
         <v>579</v>
       </c>
@@ -9122,7 +9103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A12" s="53" t="s">
         <v>579</v>
       </c>
@@ -9218,7 +9199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A13" s="53" t="s">
         <v>579</v>
       </c>
@@ -9314,7 +9295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A14" s="53" t="s">
         <v>579</v>
       </c>
@@ -9410,7 +9391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="15" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A15" s="53" t="s">
         <v>579</v>
       </c>
@@ -9506,7 +9487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="16" spans="1:38" s="10" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A16" s="53" t="s">
         <v>579</v>
       </c>
@@ -9581,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A17" s="53" t="s">
         <v>579</v>
       </c>
@@ -9607,16 +9588,26 @@
         <v>12</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J17" s="79">
         <v>43921</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="27"/>
+      <c r="K17" s="95" t="s">
+        <v>778</v>
+      </c>
+      <c r="L17" s="130" t="s">
+        <v>779</v>
+      </c>
+      <c r="M17" s="27">
+        <v>66</v>
+      </c>
+      <c r="N17" s="131">
+        <v>44027</v>
+      </c>
+      <c r="O17" t="s">
+        <v>947</v>
+      </c>
       <c r="P17" s="27" t="s">
         <v>776</v>
       </c>
@@ -9655,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>579</v>
       </c>
@@ -9715,7 +9706,7 @@
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
     </row>
-    <row r="19" spans="1:33" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:33" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A19" s="125" t="s">
         <v>579</v>
       </c>
@@ -9774,7 +9765,7 @@
         <v>776</v>
       </c>
       <c r="T19" s="95" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="U19" s="132"/>
       <c r="V19" s="115" t="s">
@@ -9784,14 +9775,14 @@
         <v>39</v>
       </c>
       <c r="X19" s="154" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="Y19" s="95"/>
       <c r="Z19" s="133"/>
       <c r="AA19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>579</v>
       </c>
@@ -9817,7 +9808,7 @@
         <v>12</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J20" s="79">
         <v>43921</v>
@@ -9850,7 +9841,7 @@
         <v>776</v>
       </c>
       <c r="T20" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U20" s="63"/>
       <c r="V20" s="66" t="s">
@@ -9863,7 +9854,7 @@
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
     </row>
-    <row r="21" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>579</v>
       </c>
@@ -9922,7 +9913,7 @@
         <v>776</v>
       </c>
       <c r="T21" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U21" s="63"/>
       <c r="V21" s="66" t="s">
@@ -9935,7 +9926,7 @@
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
     </row>
-    <row r="22" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>579</v>
       </c>
@@ -9994,7 +9985,7 @@
         <v>776</v>
       </c>
       <c r="T22" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U22" s="63"/>
       <c r="V22" s="66" t="s">
@@ -10007,7 +9998,7 @@
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
     </row>
-    <row r="23" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>579</v>
       </c>
@@ -10066,7 +10057,7 @@
         <v>776</v>
       </c>
       <c r="T23" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U23" s="63"/>
       <c r="V23" s="66" t="s">
@@ -10079,7 +10070,7 @@
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
     </row>
-    <row r="24" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>579</v>
       </c>
@@ -10151,7 +10142,7 @@
       <c r="AA24" s="27"/>
       <c r="AB24" s="27"/>
     </row>
-    <row r="25" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>579</v>
       </c>
@@ -10211,7 +10202,7 @@
       <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
     </row>
-    <row r="26" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>579</v>
       </c>
@@ -10270,7 +10261,7 @@
         <v>776</v>
       </c>
       <c r="T26" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U26" s="63"/>
       <c r="V26" s="66" t="s">
@@ -10283,7 +10274,7 @@
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
     </row>
-    <row r="27" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="27" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>579</v>
       </c>
@@ -10342,7 +10333,7 @@
         <v>776</v>
       </c>
       <c r="T27" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U27" s="63"/>
       <c r="V27" s="66" t="s">
@@ -10355,7 +10346,7 @@
       <c r="AA27" s="27"/>
       <c r="AB27" s="27"/>
     </row>
-    <row r="28" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="28" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>579</v>
       </c>
@@ -10414,7 +10405,7 @@
         <v>776</v>
       </c>
       <c r="T28" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U28" s="63"/>
       <c r="V28" s="66" t="s">
@@ -10427,7 +10418,7 @@
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
     </row>
-    <row r="29" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>579</v>
       </c>
@@ -10499,7 +10490,7 @@
       <c r="AA29" s="27"/>
       <c r="AB29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>579</v>
       </c>
@@ -10543,22 +10534,22 @@
         <v>44027</v>
       </c>
       <c r="O30" s="27" t="s">
+        <v>921</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="S30" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="T30" s="55" t="s">
         <v>923</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="S30" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="T30" s="55" t="s">
-        <v>925</v>
       </c>
       <c r="U30" s="63"/>
       <c r="V30" s="66" t="s">
@@ -10571,7 +10562,7 @@
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
     </row>
-    <row r="31" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>579</v>
       </c>
@@ -10630,7 +10621,7 @@
         <v>776</v>
       </c>
       <c r="T31" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U31" s="63"/>
       <c r="V31" s="66" t="s">
@@ -10643,7 +10634,7 @@
       <c r="AA31" s="27"/>
       <c r="AB31" s="27"/>
     </row>
-    <row r="32" spans="1:33" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:33" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>579</v>
       </c>
@@ -10702,7 +10693,7 @@
         <v>776</v>
       </c>
       <c r="T32" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U32" s="63"/>
       <c r="V32" s="66" t="s">
@@ -10715,7 +10706,7 @@
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
     </row>
-    <row r="33" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="33" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>579</v>
       </c>
@@ -10787,7 +10778,7 @@
       <c r="AA33" s="27"/>
       <c r="AB33" s="27"/>
     </row>
-    <row r="34" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="34" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>579</v>
       </c>
@@ -10859,7 +10850,7 @@
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
     </row>
-    <row r="35" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>579</v>
       </c>
@@ -10931,7 +10922,7 @@
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
     </row>
-    <row r="36" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="36" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>579</v>
       </c>
@@ -11003,7 +10994,7 @@
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
     </row>
-    <row r="37" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="37" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>579</v>
       </c>
@@ -11062,7 +11053,7 @@
         <v>776</v>
       </c>
       <c r="T37" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U37" s="63"/>
       <c r="V37" s="66" t="s">
@@ -11075,7 +11066,7 @@
       <c r="AA37" s="27"/>
       <c r="AB37" s="27"/>
     </row>
-    <row r="38" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>579</v>
       </c>
@@ -11147,7 +11138,7 @@
       <c r="AA38" s="27"/>
       <c r="AB38" s="27"/>
     </row>
-    <row r="39" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>579</v>
       </c>
@@ -11219,7 +11210,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="40" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A40" s="53" t="s">
         <v>579</v>
       </c>
@@ -11291,7 +11282,7 @@
       <c r="AA40" s="27"/>
       <c r="AB40" s="27"/>
     </row>
-    <row r="41" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="41" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A41" s="53" t="s">
         <v>579</v>
       </c>
@@ -11363,7 +11354,7 @@
       <c r="AA41" s="27"/>
       <c r="AB41" s="27"/>
     </row>
-    <row r="42" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="42" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>579</v>
       </c>
@@ -11423,7 +11414,7 @@
       <c r="AA42" s="27"/>
       <c r="AB42" s="27"/>
     </row>
-    <row r="43" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="43" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A43" s="53" t="s">
         <v>579</v>
       </c>
@@ -11483,7 +11474,7 @@
       <c r="AA43" s="27"/>
       <c r="AB43" s="27"/>
     </row>
-    <row r="44" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A44" s="53" t="s">
         <v>579</v>
       </c>
@@ -11543,7 +11534,7 @@
       <c r="AA44" s="27"/>
       <c r="AB44" s="27"/>
     </row>
-    <row r="45" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A45" s="53" t="s">
         <v>579</v>
       </c>
@@ -11602,7 +11593,7 @@
         <v>776</v>
       </c>
       <c r="T45" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U45" s="63"/>
       <c r="V45" s="66" t="s">
@@ -11615,7 +11606,7 @@
       <c r="AA45" s="27"/>
       <c r="AB45" s="27"/>
     </row>
-    <row r="46" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A46" s="53" t="s">
         <v>579</v>
       </c>
@@ -11675,7 +11666,7 @@
       <c r="AA46" s="27"/>
       <c r="AB46" s="27"/>
     </row>
-    <row r="47" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A47" s="125" t="s">
         <v>579</v>
       </c>
@@ -11732,14 +11723,14 @@
         <v>43</v>
       </c>
       <c r="X47" s="95" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Y47" s="95"/>
       <c r="Z47" s="133"/>
       <c r="AA47" s="95"/>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A48" s="53" t="s">
         <v>579</v>
       </c>
@@ -11811,7 +11802,7 @@
       <c r="AA48" s="27"/>
       <c r="AB48" s="27"/>
     </row>
-    <row r="49" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A49" s="53" t="s">
         <v>579</v>
       </c>
@@ -11870,7 +11861,7 @@
         <v>776</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="U49" s="63"/>
       <c r="V49" s="66" t="s">
@@ -11883,7 +11874,7 @@
       <c r="AA49" s="27"/>
       <c r="AB49" s="27"/>
     </row>
-    <row r="50" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A50" s="53" t="s">
         <v>579</v>
       </c>
@@ -11955,7 +11946,7 @@
       <c r="AA50" s="27"/>
       <c r="AB50" s="27"/>
     </row>
-    <row r="51" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A51" s="53" t="s">
         <v>579</v>
       </c>
@@ -12014,7 +12005,7 @@
         <v>776</v>
       </c>
       <c r="T51" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U51" s="63"/>
       <c r="V51" s="66" t="s">
@@ -12027,7 +12018,7 @@
       <c r="AA51" s="27"/>
       <c r="AB51" s="27"/>
     </row>
-    <row r="52" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A52" s="125" t="s">
         <v>579</v>
       </c>
@@ -12084,14 +12075,14 @@
         <v>43</v>
       </c>
       <c r="X52" s="95" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Y52" s="95"/>
       <c r="Z52" s="133"/>
       <c r="AA52" s="95"/>
       <c r="AB52" s="95"/>
     </row>
-    <row r="53" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A53" s="53" t="s">
         <v>579</v>
       </c>
@@ -12151,7 +12142,7 @@
       <c r="AA53" s="27"/>
       <c r="AB53" s="27"/>
     </row>
-    <row r="54" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A54" s="53" t="s">
         <v>579</v>
       </c>
@@ -12211,7 +12202,7 @@
       <c r="AA54" s="27"/>
       <c r="AB54" s="27"/>
     </row>
-    <row r="55" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A55" s="53" t="s">
         <v>579</v>
       </c>
@@ -12244,14 +12235,14 @@
       </c>
       <c r="K55" s="27"/>
       <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
+      <c r="M55" s="165"/>
       <c r="N55" s="80"/>
-      <c r="O55" s="27"/>
+      <c r="O55" s="164"/>
       <c r="P55" s="27" t="s">
         <v>776</v>
       </c>
       <c r="Q55" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R55" s="27" t="s">
         <v>776</v>
@@ -12271,7 +12262,7 @@
       <c r="AA55" s="27"/>
       <c r="AB55" s="27"/>
     </row>
-    <row r="56" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A56" s="53" t="s">
         <v>579</v>
       </c>
@@ -12331,7 +12322,7 @@
       <c r="AA56" s="27"/>
       <c r="AB56" s="27"/>
     </row>
-    <row r="57" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="57" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A57" s="53" t="s">
         <v>579</v>
       </c>
@@ -12390,7 +12381,7 @@
         <v>776</v>
       </c>
       <c r="T57" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U57" s="63"/>
       <c r="V57" s="66" t="s">
@@ -12403,7 +12394,7 @@
       <c r="AA57" s="27"/>
       <c r="AB57" s="27"/>
     </row>
-    <row r="58" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A58" s="125" t="s">
         <v>579</v>
       </c>
@@ -12462,7 +12453,7 @@
         <v>776</v>
       </c>
       <c r="T58" s="95" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="U58" s="132"/>
       <c r="V58" s="115" t="s">
@@ -12472,14 +12463,14 @@
         <v>39</v>
       </c>
       <c r="X58" s="154" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="Y58" s="95"/>
       <c r="Z58" s="133"/>
       <c r="AA58" s="95"/>
       <c r="AB58" s="95"/>
     </row>
-    <row r="59" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="59" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A59" s="53" t="s">
         <v>579</v>
       </c>
@@ -12551,7 +12542,7 @@
       <c r="AA59" s="27"/>
       <c r="AB59" s="27"/>
     </row>
-    <row r="60" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="60" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A60" s="53" t="s">
         <v>579</v>
       </c>
@@ -12582,26 +12573,16 @@
       <c r="J60" s="79">
         <v>43921</v>
       </c>
-      <c r="K60" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="L60" s="118" t="s">
-        <v>779</v>
-      </c>
-      <c r="M60" s="27">
-        <v>214</v>
-      </c>
-      <c r="N60" s="80">
-        <v>44027</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>777</v>
-      </c>
+      <c r="K60" s="27"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="27"/>
       <c r="P60" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Q60" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R60" s="27" t="s">
         <v>776</v>
@@ -12623,7 +12604,7 @@
       <c r="AA60" s="27"/>
       <c r="AB60" s="27"/>
     </row>
-    <row r="61" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A61" s="53" t="s">
         <v>579</v>
       </c>
@@ -12667,7 +12648,7 @@
         <v>44027</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="P61" s="27" t="s">
         <v>776</v>
@@ -12682,7 +12663,7 @@
         <v>776</v>
       </c>
       <c r="T61" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U61" s="63"/>
       <c r="V61" s="66" t="s">
@@ -12695,7 +12676,7 @@
       <c r="AA61" s="27"/>
       <c r="AB61" s="27"/>
     </row>
-    <row r="62" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A62" s="53" t="s">
         <v>579</v>
       </c>
@@ -12753,7 +12734,7 @@
       <c r="AA62" s="27"/>
       <c r="AB62" s="27"/>
     </row>
-    <row r="63" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="63" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A63" s="125" t="s">
         <v>579</v>
       </c>
@@ -12779,31 +12760,21 @@
         <v>12</v>
       </c>
       <c r="I63" s="95" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J63" s="129">
         <v>43921</v>
       </c>
-      <c r="K63" s="95" t="s">
-        <v>778</v>
-      </c>
-      <c r="L63" s="130" t="s">
-        <v>779</v>
-      </c>
-      <c r="M63" s="95">
-        <v>98</v>
-      </c>
-      <c r="N63" s="131">
-        <v>44027</v>
-      </c>
-      <c r="O63" s="95" t="s">
-        <v>944</v>
-      </c>
+      <c r="K63" s="95"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="95"/>
       <c r="P63" s="95" t="s">
         <v>776</v>
       </c>
       <c r="Q63" s="95" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R63" s="95" t="s">
         <v>776</v>
@@ -12812,7 +12783,7 @@
         <v>776</v>
       </c>
       <c r="T63" s="145" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U63" s="95" t="s">
         <v>862</v>
@@ -12824,14 +12795,14 @@
         <v>39</v>
       </c>
       <c r="X63" s="154" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="Y63" s="95"/>
       <c r="Z63" s="133"/>
       <c r="AA63" s="95"/>
       <c r="AB63" s="95"/>
     </row>
-    <row r="64" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="64" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A64" s="53" t="s">
         <v>579</v>
       </c>
@@ -12875,7 +12846,7 @@
         <v>44027</v>
       </c>
       <c r="O64" s="27" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="P64" s="27" t="s">
         <v>776</v>
@@ -12890,7 +12861,7 @@
         <v>776</v>
       </c>
       <c r="T64" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U64" s="63"/>
       <c r="V64" s="66" t="s">
@@ -12903,7 +12874,7 @@
       <c r="AA64" s="27"/>
       <c r="AB64" s="27"/>
     </row>
-    <row r="65" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="65" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A65" s="53" t="s">
         <v>579</v>
       </c>
@@ -12975,7 +12946,7 @@
       <c r="AA65" s="27"/>
       <c r="AB65" s="27"/>
     </row>
-    <row r="66" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="66" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A66" s="53" t="s">
         <v>579</v>
       </c>
@@ -13047,7 +13018,7 @@
       <c r="AA66" s="27"/>
       <c r="AB66" s="27"/>
     </row>
-    <row r="67" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="67" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A67" s="53" t="s">
         <v>579</v>
       </c>
@@ -13105,7 +13076,7 @@
       <c r="AA67" s="27"/>
       <c r="AB67" s="27"/>
     </row>
-    <row r="68" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="68" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A68" s="53" t="s">
         <v>579</v>
       </c>
@@ -13165,7 +13136,7 @@
       <c r="AA68" s="27"/>
       <c r="AB68" s="27"/>
     </row>
-    <row r="69" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="69" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A69" s="53" t="s">
         <v>579</v>
       </c>
@@ -13225,7 +13196,7 @@
       <c r="AA69" s="27"/>
       <c r="AB69" s="27"/>
     </row>
-    <row r="70" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A70" s="53" t="s">
         <v>579</v>
       </c>
@@ -13285,7 +13256,7 @@
       <c r="AA70" s="27"/>
       <c r="AB70" s="27"/>
     </row>
-    <row r="71" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="71" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A71" s="53" t="s">
         <v>579</v>
       </c>
@@ -13345,7 +13316,7 @@
       <c r="AA71" s="27"/>
       <c r="AB71" s="27"/>
     </row>
-    <row r="72" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="72" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A72" s="53" t="s">
         <v>579</v>
       </c>
@@ -13405,7 +13376,7 @@
       <c r="AA72" s="27"/>
       <c r="AB72" s="27"/>
     </row>
-    <row r="73" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="73" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A73" s="53" t="s">
         <v>579</v>
       </c>
@@ -13465,7 +13436,7 @@
       <c r="AA73" s="27"/>
       <c r="AB73" s="27"/>
     </row>
-    <row r="74" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="74" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A74" s="53" t="s">
         <v>579</v>
       </c>
@@ -13523,7 +13494,7 @@
       <c r="AA74" s="27"/>
       <c r="AB74" s="27"/>
     </row>
-    <row r="75" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="75" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A75" s="53" t="s">
         <v>579</v>
       </c>
@@ -13583,7 +13554,7 @@
       <c r="AA75" s="27"/>
       <c r="AB75" s="27"/>
     </row>
-    <row r="76" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="76" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A76" s="53" t="s">
         <v>579</v>
       </c>
@@ -13643,7 +13614,7 @@
       <c r="AA76" s="27"/>
       <c r="AB76" s="27"/>
     </row>
-    <row r="77" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="77" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A77" s="125" t="s">
         <v>579</v>
       </c>
@@ -13702,7 +13673,7 @@
         <v>776</v>
       </c>
       <c r="T77" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U77" s="132"/>
       <c r="V77" s="66" t="s">
@@ -13715,7 +13686,7 @@
       <c r="AA77" s="95"/>
       <c r="AB77" s="95"/>
     </row>
-    <row r="78" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="78" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A78" s="53" t="s">
         <v>579</v>
       </c>
@@ -13775,7 +13746,7 @@
       <c r="AA78" s="27"/>
       <c r="AB78" s="27"/>
     </row>
-    <row r="79" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="79" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A79" s="53" t="s">
         <v>579</v>
       </c>
@@ -13834,7 +13805,7 @@
         <v>776</v>
       </c>
       <c r="T79" s="27" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="U79" s="63"/>
       <c r="V79" s="66" t="s">
@@ -13847,7 +13818,7 @@
       <c r="AA79" s="27"/>
       <c r="AB79" s="27"/>
     </row>
-    <row r="80" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="80" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A80" s="125" t="s">
         <v>579</v>
       </c>
@@ -13902,14 +13873,14 @@
         <v>43</v>
       </c>
       <c r="X80" s="95" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="Y80" s="95"/>
       <c r="Z80" s="133"/>
       <c r="AA80" s="95"/>
       <c r="AB80" s="95"/>
     </row>
-    <row r="81" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="81" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A81" s="53" t="s">
         <v>579</v>
       </c>
@@ -13981,7 +13952,7 @@
       <c r="AA81" s="27"/>
       <c r="AB81" s="27"/>
     </row>
-    <row r="82" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="82" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A82" s="53" t="s">
         <v>579</v>
       </c>
@@ -14053,7 +14024,7 @@
       <c r="AA82" s="27"/>
       <c r="AB82" s="27"/>
     </row>
-    <row r="83" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="83" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A83" s="53" t="s">
         <v>579</v>
       </c>
@@ -14125,7 +14096,7 @@
       <c r="AA83" s="27"/>
       <c r="AB83" s="27"/>
     </row>
-    <row r="84" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="84" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A84" s="53" t="s">
         <v>579</v>
       </c>
@@ -14197,7 +14168,7 @@
       <c r="AA84" s="27"/>
       <c r="AB84" s="27"/>
     </row>
-    <row r="85" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="85" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A85" s="53" t="s">
         <v>579</v>
       </c>
@@ -14257,7 +14228,7 @@
       <c r="AA85" s="27"/>
       <c r="AB85" s="27"/>
     </row>
-    <row r="86" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="86" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A86" s="125" t="s">
         <v>579</v>
       </c>
@@ -14283,7 +14254,7 @@
         <v>12</v>
       </c>
       <c r="I86" s="95" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J86" s="129">
         <v>43921</v>
@@ -14301,7 +14272,7 @@
         <v>44027</v>
       </c>
       <c r="O86" s="95" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="P86" s="95" t="s">
         <v>776</v>
@@ -14316,7 +14287,7 @@
         <v>776</v>
       </c>
       <c r="T86" s="145" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U86" s="95"/>
       <c r="V86" s="115" t="s">
@@ -14329,7 +14300,7 @@
       <c r="AA86" s="95"/>
       <c r="AB86" s="95"/>
     </row>
-    <row r="87" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="87" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A87" s="53" t="s">
         <v>579</v>
       </c>
@@ -14360,26 +14331,16 @@
       <c r="J87" s="79">
         <v>43921</v>
       </c>
-      <c r="K87" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="L87" s="118" t="s">
-        <v>779</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>906</v>
-      </c>
-      <c r="N87" s="80">
-        <v>44027</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>905</v>
-      </c>
+      <c r="K87" s="27"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="27"/>
       <c r="P87" s="27" t="s">
         <v>776</v>
       </c>
       <c r="Q87" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R87" s="27" t="s">
         <v>776</v>
@@ -14388,7 +14349,7 @@
         <v>776</v>
       </c>
       <c r="T87" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U87" s="63"/>
       <c r="V87" s="66" t="s">
@@ -14401,7 +14362,7 @@
       <c r="AA87" s="27"/>
       <c r="AB87" s="27"/>
     </row>
-    <row r="88" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="88" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A88" s="53" t="s">
         <v>579</v>
       </c>
@@ -14461,7 +14422,7 @@
       <c r="AA88" s="27"/>
       <c r="AB88" s="27"/>
     </row>
-    <row r="89" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="89" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A89" s="53" t="s">
         <v>579</v>
       </c>
@@ -14521,7 +14482,7 @@
       <c r="AA89" s="27"/>
       <c r="AB89" s="27"/>
     </row>
-    <row r="90" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="90" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A90" s="53" t="s">
         <v>579</v>
       </c>
@@ -14581,7 +14542,7 @@
       <c r="AA90" s="27"/>
       <c r="AB90" s="27"/>
     </row>
-    <row r="91" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="91" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A91" s="53" t="s">
         <v>579</v>
       </c>
@@ -14641,7 +14602,7 @@
       <c r="AA91" s="27"/>
       <c r="AB91" s="27"/>
     </row>
-    <row r="92" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="92" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A92" s="53" t="s">
         <v>579</v>
       </c>
@@ -14701,7 +14662,7 @@
       <c r="AA92" s="27"/>
       <c r="AB92" s="27"/>
     </row>
-    <row r="93" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="93" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A93" s="53" t="s">
         <v>579</v>
       </c>
@@ -14761,7 +14722,7 @@
       <c r="AA93" s="27"/>
       <c r="AB93" s="27"/>
     </row>
-    <row r="94" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="94" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A94" s="53" t="s">
         <v>579</v>
       </c>
@@ -14833,7 +14794,7 @@
       <c r="AA94" s="27"/>
       <c r="AB94" s="27"/>
     </row>
-    <row r="95" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="95" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A95" s="53" t="s">
         <v>579</v>
       </c>
@@ -14892,7 +14853,7 @@
         <v>776</v>
       </c>
       <c r="T95" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U95" s="63"/>
       <c r="V95" s="66" t="s">
@@ -14905,7 +14866,7 @@
       <c r="AA95" s="27"/>
       <c r="AB95" s="27"/>
     </row>
-    <row r="96" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="96" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A96" s="53" t="s">
         <v>579</v>
       </c>
@@ -14964,7 +14925,7 @@
         <v>776</v>
       </c>
       <c r="T96" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U96" s="63"/>
       <c r="V96" s="66" t="s">
@@ -14977,7 +14938,7 @@
       <c r="AA96" s="27"/>
       <c r="AB96" s="27"/>
     </row>
-    <row r="97" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="97" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A97" s="53" t="s">
         <v>579</v>
       </c>
@@ -15036,7 +14997,7 @@
         <v>776</v>
       </c>
       <c r="T97" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U97" s="63"/>
       <c r="V97" s="66" t="s">
@@ -15049,7 +15010,7 @@
       <c r="AA97" s="27"/>
       <c r="AB97" s="27"/>
     </row>
-    <row r="98" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="98" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A98" s="53" t="s">
         <v>579</v>
       </c>
@@ -15108,7 +15069,7 @@
         <v>776</v>
       </c>
       <c r="T98" s="27" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="U98" s="63"/>
       <c r="V98" s="66" t="s">
@@ -15121,7 +15082,7 @@
       <c r="AA98" s="27"/>
       <c r="AB98" s="27"/>
     </row>
-    <row r="99" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="99" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A99" s="53" t="s">
         <v>579</v>
       </c>
@@ -15181,7 +15142,7 @@
       <c r="AA99" s="27"/>
       <c r="AB99" s="27"/>
     </row>
-    <row r="100" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="100" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A100" s="125" t="s">
         <v>579</v>
       </c>
@@ -15225,7 +15186,7 @@
         <v>44027</v>
       </c>
       <c r="O100" s="95" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="P100" s="95" t="s">
         <v>776</v>
@@ -15240,7 +15201,7 @@
         <v>776</v>
       </c>
       <c r="T100" s="145" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U100" s="132"/>
       <c r="V100" s="115" t="s">
@@ -15250,14 +15211,14 @@
         <v>43</v>
       </c>
       <c r="X100" s="154" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="Y100" s="95"/>
       <c r="Z100" s="133"/>
       <c r="AA100" s="95"/>
       <c r="AB100" s="95"/>
     </row>
-    <row r="101" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="101" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A101" s="53" t="s">
         <v>579</v>
       </c>
@@ -15317,7 +15278,7 @@
       <c r="AA101" s="27"/>
       <c r="AB101" s="27"/>
     </row>
-    <row r="102" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="102" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A102" s="53" t="s">
         <v>579</v>
       </c>
@@ -15376,7 +15337,7 @@
         <v>776</v>
       </c>
       <c r="T102" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U102" s="63"/>
       <c r="V102" s="66" t="s">
@@ -15389,7 +15350,7 @@
       <c r="AA102" s="27"/>
       <c r="AB102" s="27"/>
     </row>
-    <row r="103" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="103" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A103" s="53" t="s">
         <v>579</v>
       </c>
@@ -15448,7 +15409,7 @@
         <v>776</v>
       </c>
       <c r="T103" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U103" s="63"/>
       <c r="V103" s="66" t="s">
@@ -15461,7 +15422,7 @@
       <c r="AA103" s="27"/>
       <c r="AB103" s="27"/>
     </row>
-    <row r="104" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="104" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A104" s="53" t="s">
         <v>579</v>
       </c>
@@ -15521,7 +15482,7 @@
       <c r="AA104" s="27"/>
       <c r="AB104" s="27"/>
     </row>
-    <row r="105" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="105" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A105" s="53" t="s">
         <v>579</v>
       </c>
@@ -15580,7 +15541,7 @@
         <v>776</v>
       </c>
       <c r="T105" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U105" s="63"/>
       <c r="V105" s="66" t="s">
@@ -15593,7 +15554,7 @@
       <c r="AA105" s="27"/>
       <c r="AB105" s="27"/>
     </row>
-    <row r="106" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="106" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A106" s="53" t="s">
         <v>579</v>
       </c>
@@ -15665,7 +15626,7 @@
       <c r="AA106" s="27"/>
       <c r="AB106" s="27"/>
     </row>
-    <row r="107" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="107" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A107" s="53" t="s">
         <v>579</v>
       </c>
@@ -15709,7 +15670,7 @@
         <v>43620</v>
       </c>
       <c r="O107" s="27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>776</v>
@@ -15724,7 +15685,7 @@
         <v>776</v>
       </c>
       <c r="T107" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U107" s="63"/>
       <c r="V107" s="66"/>
@@ -15735,7 +15696,7 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="27"/>
     </row>
-    <row r="108" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="108" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A108" s="53" t="s">
         <v>579</v>
       </c>
@@ -15779,7 +15740,7 @@
         <v>43620</v>
       </c>
       <c r="O108" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="P108" s="27" t="s">
         <v>776</v>
@@ -15794,7 +15755,7 @@
         <v>776</v>
       </c>
       <c r="T108" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U108" s="63"/>
       <c r="V108" s="66"/>
@@ -15805,7 +15766,7 @@
       <c r="AA108" s="27"/>
       <c r="AB108" s="27"/>
     </row>
-    <row r="109" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="109" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A109" s="53" t="s">
         <v>579</v>
       </c>
@@ -15864,7 +15825,7 @@
         <v>776</v>
       </c>
       <c r="T109" s="27" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="U109" s="63"/>
       <c r="V109" s="66"/>
@@ -15875,7 +15836,7 @@
       <c r="AA109" s="27"/>
       <c r="AB109" s="27"/>
     </row>
-    <row r="110" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="110" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A110" s="53" t="s">
         <v>579</v>
       </c>
@@ -15934,7 +15895,7 @@
         <v>776</v>
       </c>
       <c r="T110" s="27" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="U110" s="63"/>
       <c r="V110" s="66"/>
@@ -15945,7 +15906,7 @@
       <c r="AA110" s="27"/>
       <c r="AB110" s="27"/>
     </row>
-    <row r="111" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="111" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A111" s="53" t="s">
         <v>579</v>
       </c>
@@ -16003,7 +15964,7 @@
       <c r="AA111" s="27"/>
       <c r="AB111" s="27"/>
     </row>
-    <row r="112" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="112" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A112" s="53" t="s">
         <v>579</v>
       </c>
@@ -16061,7 +16022,7 @@
       <c r="AA112" s="27"/>
       <c r="AB112" s="27"/>
     </row>
-    <row r="113" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="113" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A113" s="53" t="s">
         <v>579</v>
       </c>
@@ -16119,7 +16080,7 @@
       <c r="AA113" s="27"/>
       <c r="AB113" s="27"/>
     </row>
-    <row r="114" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="114" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A114" s="53" t="s">
         <v>579</v>
       </c>
@@ -16178,7 +16139,7 @@
         <v>776</v>
       </c>
       <c r="T114" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U114" s="63"/>
       <c r="V114" s="66"/>
@@ -16189,7 +16150,7 @@
       <c r="AA114" s="27"/>
       <c r="AB114" s="27"/>
     </row>
-    <row r="115" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="115" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A115" s="53" t="s">
         <v>579</v>
       </c>
@@ -16247,7 +16208,7 @@
       <c r="AA115" s="27"/>
       <c r="AB115" s="27"/>
     </row>
-    <row r="116" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="116" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A116" s="53" t="s">
         <v>579</v>
       </c>
@@ -16305,7 +16266,7 @@
       <c r="AA116" s="27"/>
       <c r="AB116" s="27"/>
     </row>
-    <row r="117" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="117" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A117" s="53" t="s">
         <v>579</v>
       </c>
@@ -16375,7 +16336,7 @@
       <c r="AA117" s="27"/>
       <c r="AB117" s="27"/>
     </row>
-    <row r="118" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="118" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A118" s="53" t="s">
         <v>579</v>
       </c>
@@ -16445,7 +16406,7 @@
       <c r="AA118" s="27"/>
       <c r="AB118" s="27"/>
     </row>
-    <row r="119" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="119" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A119" s="53" t="s">
         <v>579</v>
       </c>
@@ -16515,7 +16476,7 @@
       <c r="AA119" s="27"/>
       <c r="AB119" s="27"/>
     </row>
-    <row r="120" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="120" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A120" s="53" t="s">
         <v>579</v>
       </c>
@@ -16585,7 +16546,7 @@
       <c r="AA120" s="27"/>
       <c r="AB120" s="27"/>
     </row>
-    <row r="121" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="121" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A121" s="53" t="s">
         <v>579</v>
       </c>
@@ -16643,7 +16604,7 @@
       <c r="AA121" s="27"/>
       <c r="AB121" s="27"/>
     </row>
-    <row r="122" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="122" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A122" s="53" t="s">
         <v>579</v>
       </c>
@@ -16669,16 +16630,26 @@
         <v>66</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J122" s="80">
         <v>43555</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="27"/>
+      <c r="K122" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="L122" s="118" t="s">
+        <v>784</v>
+      </c>
+      <c r="M122" s="27">
+        <v>65</v>
+      </c>
+      <c r="N122" s="80">
+        <v>43620</v>
+      </c>
+      <c r="O122" t="s">
+        <v>948</v>
+      </c>
       <c r="P122" s="27" t="s">
         <v>776</v>
       </c>
@@ -16701,7 +16672,7 @@
       <c r="AA122" s="27"/>
       <c r="AB122" s="27"/>
     </row>
-    <row r="123" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="123" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A123" s="53" t="s">
         <v>579</v>
       </c>
@@ -16759,7 +16730,7 @@
       <c r="AA123" s="27"/>
       <c r="AB123" s="27"/>
     </row>
-    <row r="124" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="124" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A124" s="53" t="s">
         <v>579</v>
       </c>
@@ -16818,7 +16789,7 @@
         <v>776</v>
       </c>
       <c r="T124" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="U124" s="63"/>
       <c r="V124" s="66"/>
@@ -16829,7 +16800,7 @@
       <c r="AA124" s="27"/>
       <c r="AB124" s="27"/>
     </row>
-    <row r="125" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="125" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A125" s="53" t="s">
         <v>579</v>
       </c>
@@ -16855,7 +16826,7 @@
         <v>66</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J125" s="80">
         <v>43555</v>
@@ -16888,7 +16859,7 @@
         <v>776</v>
       </c>
       <c r="T125" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U125" s="63"/>
       <c r="V125" s="66"/>
@@ -16899,7 +16870,7 @@
       <c r="AA125" s="27"/>
       <c r="AB125" s="27"/>
     </row>
-    <row r="126" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="126" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A126" s="53" t="s">
         <v>579</v>
       </c>
@@ -16958,7 +16929,7 @@
         <v>776</v>
       </c>
       <c r="T126" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U126" s="63"/>
       <c r="V126" s="66"/>
@@ -16969,7 +16940,7 @@
       <c r="AA126" s="27"/>
       <c r="AB126" s="27"/>
     </row>
-    <row r="127" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="127" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A127" s="53" t="s">
         <v>579</v>
       </c>
@@ -17028,7 +16999,7 @@
         <v>776</v>
       </c>
       <c r="T127" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U127" s="63"/>
       <c r="V127" s="66"/>
@@ -17039,7 +17010,7 @@
       <c r="AA127" s="27"/>
       <c r="AB127" s="27"/>
     </row>
-    <row r="128" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="128" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A128" s="53" t="s">
         <v>579</v>
       </c>
@@ -17098,7 +17069,7 @@
         <v>776</v>
       </c>
       <c r="T128" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U128" s="63"/>
       <c r="V128" s="66"/>
@@ -17109,7 +17080,7 @@
       <c r="AA128" s="27"/>
       <c r="AB128" s="27"/>
     </row>
-    <row r="129" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="129" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A129" s="53" t="s">
         <v>579</v>
       </c>
@@ -17179,7 +17150,7 @@
       <c r="AA129" s="27"/>
       <c r="AB129" s="27"/>
     </row>
-    <row r="130" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="130" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A130" s="53" t="s">
         <v>579</v>
       </c>
@@ -17237,7 +17208,7 @@
       <c r="AA130" s="27"/>
       <c r="AB130" s="27"/>
     </row>
-    <row r="131" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="131" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A131" s="53" t="s">
         <v>579</v>
       </c>
@@ -17296,7 +17267,7 @@
         <v>776</v>
       </c>
       <c r="T131" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U131" s="63"/>
       <c r="V131" s="66"/>
@@ -17307,7 +17278,7 @@
       <c r="AA131" s="27"/>
       <c r="AB131" s="27"/>
     </row>
-    <row r="132" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="132" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A132" s="53" t="s">
         <v>579</v>
       </c>
@@ -17366,7 +17337,7 @@
         <v>776</v>
       </c>
       <c r="T132" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U132" s="63"/>
       <c r="V132" s="66"/>
@@ -17377,7 +17348,7 @@
       <c r="AA132" s="27"/>
       <c r="AB132" s="27"/>
     </row>
-    <row r="133" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="133" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A133" s="53" t="s">
         <v>579</v>
       </c>
@@ -17436,7 +17407,7 @@
         <v>776</v>
       </c>
       <c r="T133" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U133" s="63"/>
       <c r="V133" s="66"/>
@@ -17447,7 +17418,7 @@
       <c r="AA133" s="27"/>
       <c r="AB133" s="27"/>
     </row>
-    <row r="134" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="134" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A134" s="53" t="s">
         <v>579</v>
       </c>
@@ -17517,7 +17488,7 @@
       <c r="AA134" s="27"/>
       <c r="AB134" s="27"/>
     </row>
-    <row r="135" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="135" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A135" s="53" t="s">
         <v>579</v>
       </c>
@@ -17561,7 +17532,7 @@
         <v>43620</v>
       </c>
       <c r="O135" s="27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="P135" s="27" t="s">
         <v>776</v>
@@ -17576,7 +17547,7 @@
         <v>776</v>
       </c>
       <c r="T135" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U135" s="63"/>
       <c r="V135" s="66"/>
@@ -17587,7 +17558,7 @@
       <c r="AA135" s="27"/>
       <c r="AB135" s="27"/>
     </row>
-    <row r="136" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="136" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A136" s="53" t="s">
         <v>579</v>
       </c>
@@ -17646,7 +17617,7 @@
         <v>776</v>
       </c>
       <c r="T136" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U136" s="63"/>
       <c r="V136" s="66"/>
@@ -17657,7 +17628,7 @@
       <c r="AA136" s="27"/>
       <c r="AB136" s="27"/>
     </row>
-    <row r="137" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="137" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A137" s="53" t="s">
         <v>579</v>
       </c>
@@ -17716,7 +17687,7 @@
         <v>776</v>
       </c>
       <c r="T137" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U137" s="63"/>
       <c r="V137" s="66"/>
@@ -17727,7 +17698,7 @@
       <c r="AA137" s="27"/>
       <c r="AB137" s="27"/>
     </row>
-    <row r="138" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="138" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A138" s="53" t="s">
         <v>579</v>
       </c>
@@ -17797,7 +17768,7 @@
       <c r="AA138" s="27"/>
       <c r="AB138" s="27"/>
     </row>
-    <row r="139" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="139" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A139" s="53" t="s">
         <v>579</v>
       </c>
@@ -17867,7 +17838,7 @@
       <c r="AA139" s="27"/>
       <c r="AB139" s="27"/>
     </row>
-    <row r="140" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="140" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A140" s="53" t="s">
         <v>579</v>
       </c>
@@ -17937,7 +17908,7 @@
       <c r="AA140" s="27"/>
       <c r="AB140" s="27"/>
     </row>
-    <row r="141" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="141" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A141" s="53" t="s">
         <v>579</v>
       </c>
@@ -18007,7 +17978,7 @@
       <c r="AA141" s="27"/>
       <c r="AB141" s="27"/>
     </row>
-    <row r="142" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="142" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A142" s="53" t="s">
         <v>579</v>
       </c>
@@ -18066,7 +18037,7 @@
         <v>776</v>
       </c>
       <c r="T142" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U142" s="63"/>
       <c r="V142" s="66"/>
@@ -18077,7 +18048,7 @@
       <c r="AA142" s="27"/>
       <c r="AB142" s="27"/>
     </row>
-    <row r="143" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="143" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A143" s="53" t="s">
         <v>579</v>
       </c>
@@ -18147,7 +18118,7 @@
       <c r="AA143" s="27"/>
       <c r="AB143" s="27"/>
     </row>
-    <row r="144" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="144" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A144" s="53" t="s">
         <v>579</v>
       </c>
@@ -18217,7 +18188,7 @@
       <c r="AA144" s="27"/>
       <c r="AB144" s="27"/>
     </row>
-    <row r="145" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="145" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A145" s="53" t="s">
         <v>579</v>
       </c>
@@ -18287,7 +18258,7 @@
       <c r="AA145" s="27"/>
       <c r="AB145" s="27"/>
     </row>
-    <row r="146" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="146" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A146" s="53" t="s">
         <v>579</v>
       </c>
@@ -18357,7 +18328,7 @@
       <c r="AA146" s="27"/>
       <c r="AB146" s="27"/>
     </row>
-    <row r="147" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="147" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A147" s="53" t="s">
         <v>579</v>
       </c>
@@ -18415,7 +18386,7 @@
       <c r="AA147" s="27"/>
       <c r="AB147" s="27"/>
     </row>
-    <row r="148" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="148" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A148" s="53" t="s">
         <v>579</v>
       </c>
@@ -18473,7 +18444,7 @@
       <c r="AA148" s="27"/>
       <c r="AB148" s="27"/>
     </row>
-    <row r="149" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="149" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A149" s="53" t="s">
         <v>579</v>
       </c>
@@ -18531,7 +18502,7 @@
       <c r="AA149" s="27"/>
       <c r="AB149" s="27"/>
     </row>
-    <row r="150" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="150" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A150" s="53" t="s">
         <v>579</v>
       </c>
@@ -18590,7 +18561,7 @@
         <v>776</v>
       </c>
       <c r="T150" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U150" s="63"/>
       <c r="V150" s="66"/>
@@ -18601,7 +18572,7 @@
       <c r="AA150" s="27"/>
       <c r="AB150" s="27"/>
     </row>
-    <row r="151" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="151" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A151" s="53" t="s">
         <v>579</v>
       </c>
@@ -18659,7 +18630,7 @@
       <c r="AA151" s="27"/>
       <c r="AB151" s="27"/>
     </row>
-    <row r="152" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="152" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A152" s="53" t="s">
         <v>579</v>
       </c>
@@ -18717,7 +18688,7 @@
       <c r="AA152" s="27"/>
       <c r="AB152" s="27"/>
     </row>
-    <row r="153" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="153" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A153" s="53" t="s">
         <v>579</v>
       </c>
@@ -18787,7 +18758,7 @@
       <c r="AA153" s="27"/>
       <c r="AB153" s="27"/>
     </row>
-    <row r="154" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="154" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A154" s="53" t="s">
         <v>579</v>
       </c>
@@ -18846,7 +18817,7 @@
         <v>776</v>
       </c>
       <c r="T154" s="27" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="U154" s="63"/>
       <c r="V154" s="66"/>
@@ -18857,7 +18828,7 @@
       <c r="AA154" s="27"/>
       <c r="AB154" s="27"/>
     </row>
-    <row r="155" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="155" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A155" s="53" t="s">
         <v>579</v>
       </c>
@@ -18927,7 +18898,7 @@
       <c r="AA155" s="27"/>
       <c r="AB155" s="27"/>
     </row>
-    <row r="156" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="156" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A156" s="53" t="s">
         <v>579</v>
       </c>
@@ -18986,7 +18957,7 @@
         <v>776</v>
       </c>
       <c r="T156" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U156" s="63"/>
       <c r="V156" s="66"/>
@@ -18997,7 +18968,7 @@
       <c r="AA156" s="27"/>
       <c r="AB156" s="27"/>
     </row>
-    <row r="157" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="157" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A157" s="53" t="s">
         <v>579</v>
       </c>
@@ -19055,7 +19026,7 @@
       <c r="AA157" s="27"/>
       <c r="AB157" s="27"/>
     </row>
-    <row r="158" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="158" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A158" s="53" t="s">
         <v>579</v>
       </c>
@@ -19113,7 +19084,7 @@
       <c r="AA158" s="27"/>
       <c r="AB158" s="27"/>
     </row>
-    <row r="159" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="159" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A159" s="53" t="s">
         <v>579</v>
       </c>
@@ -19171,7 +19142,7 @@
       <c r="AA159" s="27"/>
       <c r="AB159" s="27"/>
     </row>
-    <row r="160" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="160" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A160" s="53" t="s">
         <v>579</v>
       </c>
@@ -19204,14 +19175,14 @@
       </c>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
+      <c r="M160" s="165"/>
       <c r="N160" s="80"/>
-      <c r="O160" s="27"/>
+      <c r="O160"/>
       <c r="P160" s="27" t="s">
         <v>776</v>
       </c>
       <c r="Q160" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R160" s="27" t="s">
         <v>776</v>
@@ -19229,7 +19200,7 @@
       <c r="AA160" s="27"/>
       <c r="AB160" s="27"/>
     </row>
-    <row r="161" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="161" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A161" s="53" t="s">
         <v>579</v>
       </c>
@@ -19287,7 +19258,7 @@
       <c r="AA161" s="27"/>
       <c r="AB161" s="27"/>
     </row>
-    <row r="162" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="162" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A162" s="53" t="s">
         <v>579</v>
       </c>
@@ -19346,7 +19317,7 @@
         <v>776</v>
       </c>
       <c r="T162" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U162" s="63"/>
       <c r="V162" s="66"/>
@@ -19357,7 +19328,7 @@
       <c r="AA162" s="27"/>
       <c r="AB162" s="27"/>
     </row>
-    <row r="163" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="163" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A163" s="53" t="s">
         <v>579</v>
       </c>
@@ -19416,7 +19387,7 @@
         <v>776</v>
       </c>
       <c r="T163" s="95" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="U163" s="63"/>
       <c r="V163" s="66"/>
@@ -19427,7 +19398,7 @@
       <c r="AA163" s="27"/>
       <c r="AB163" s="27"/>
     </row>
-    <row r="164" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="164" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A164" s="53" t="s">
         <v>579</v>
       </c>
@@ -19497,7 +19468,7 @@
       <c r="AA164" s="27"/>
       <c r="AB164" s="27"/>
     </row>
-    <row r="165" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="165" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A165" s="53" t="s">
         <v>579</v>
       </c>
@@ -19555,7 +19526,7 @@
       <c r="AA165" s="27"/>
       <c r="AB165" s="27"/>
     </row>
-    <row r="166" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="166" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A166" s="53" t="s">
         <v>579</v>
       </c>
@@ -19599,7 +19570,7 @@
         <v>43620</v>
       </c>
       <c r="O166" s="27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="P166" s="27" t="s">
         <v>776</v>
@@ -19614,7 +19585,7 @@
         <v>776</v>
       </c>
       <c r="T166" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U166" s="63"/>
       <c r="V166" s="66"/>
@@ -19625,7 +19596,7 @@
       <c r="AA166" s="27"/>
       <c r="AB166" s="27"/>
     </row>
-    <row r="167" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="167" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A167" s="53" t="s">
         <v>579</v>
       </c>
@@ -19681,7 +19652,7 @@
       <c r="AA167" s="27"/>
       <c r="AB167" s="27"/>
     </row>
-    <row r="168" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="168" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A168" s="53" t="s">
         <v>579</v>
       </c>
@@ -19707,31 +19678,21 @@
         <v>66</v>
       </c>
       <c r="I168" s="27" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J168" s="80">
         <v>43555</v>
       </c>
-      <c r="K168" s="95" t="s">
-        <v>783</v>
-      </c>
-      <c r="L168" s="118" t="s">
-        <v>784</v>
-      </c>
-      <c r="M168" s="27">
-        <v>94</v>
-      </c>
-      <c r="N168" s="80">
-        <v>43620</v>
-      </c>
-      <c r="O168" s="27" t="s">
-        <v>945</v>
-      </c>
+      <c r="K168" s="95"/>
+      <c r="L168" s="118"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="80"/>
+      <c r="O168" s="27"/>
       <c r="P168" s="27" t="s">
         <v>776</v>
       </c>
       <c r="Q168" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R168" s="27" t="s">
         <v>776</v>
@@ -19740,7 +19701,7 @@
         <v>776</v>
       </c>
       <c r="T168" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U168" s="27" t="s">
         <v>862</v>
@@ -19753,7 +19714,7 @@
       <c r="AA168" s="27"/>
       <c r="AB168" s="27"/>
     </row>
-    <row r="169" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="169" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A169" s="53" t="s">
         <v>579</v>
       </c>
@@ -19797,7 +19758,7 @@
         <v>43620</v>
       </c>
       <c r="O169" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="P169" s="27" t="s">
         <v>776</v>
@@ -19812,7 +19773,7 @@
         <v>776</v>
       </c>
       <c r="T169" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U169" s="63"/>
       <c r="V169" s="66"/>
@@ -19823,7 +19784,7 @@
       <c r="AA169" s="27"/>
       <c r="AB169" s="27"/>
     </row>
-    <row r="170" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="170" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A170" s="53" t="s">
         <v>579</v>
       </c>
@@ -19893,7 +19854,7 @@
       <c r="AA170" s="27"/>
       <c r="AB170" s="27"/>
     </row>
-    <row r="171" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="171" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A171" s="53" t="s">
         <v>579</v>
       </c>
@@ -19963,7 +19924,7 @@
       <c r="AA171" s="27"/>
       <c r="AB171" s="27"/>
     </row>
-    <row r="172" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="172" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A172" s="53" t="s">
         <v>579</v>
       </c>
@@ -20019,7 +19980,7 @@
       <c r="AA172" s="27"/>
       <c r="AB172" s="27"/>
     </row>
-    <row r="173" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="173" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A173" s="53" t="s">
         <v>579</v>
       </c>
@@ -20077,7 +20038,7 @@
       <c r="AA173" s="27"/>
       <c r="AB173" s="27"/>
     </row>
-    <row r="174" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="174" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A174" s="53" t="s">
         <v>579</v>
       </c>
@@ -20135,7 +20096,7 @@
       <c r="AA174" s="27"/>
       <c r="AB174" s="27"/>
     </row>
-    <row r="175" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="175" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A175" s="53" t="s">
         <v>579</v>
       </c>
@@ -20193,7 +20154,7 @@
       <c r="AA175" s="27"/>
       <c r="AB175" s="27"/>
     </row>
-    <row r="176" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="176" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A176" s="53" t="s">
         <v>579</v>
       </c>
@@ -20251,7 +20212,7 @@
       <c r="AA176" s="27"/>
       <c r="AB176" s="27"/>
     </row>
-    <row r="177" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="177" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A177" s="53" t="s">
         <v>579</v>
       </c>
@@ -20309,7 +20270,7 @@
       <c r="AA177" s="27"/>
       <c r="AB177" s="27"/>
     </row>
-    <row r="178" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="178" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A178" s="53" t="s">
         <v>579</v>
       </c>
@@ -20367,7 +20328,7 @@
       <c r="AA178" s="27"/>
       <c r="AB178" s="27"/>
     </row>
-    <row r="179" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="179" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A179" s="53" t="s">
         <v>579</v>
       </c>
@@ -20423,7 +20384,7 @@
       <c r="AA179" s="27"/>
       <c r="AB179" s="27"/>
     </row>
-    <row r="180" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="180" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A180" s="53" t="s">
         <v>579</v>
       </c>
@@ -20481,7 +20442,7 @@
       <c r="AA180" s="27"/>
       <c r="AB180" s="27"/>
     </row>
-    <row r="181" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="181" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A181" s="53" t="s">
         <v>579</v>
       </c>
@@ -20539,7 +20500,7 @@
       <c r="AA181" s="27"/>
       <c r="AB181" s="27"/>
     </row>
-    <row r="182" spans="1:28" s="134" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="182" spans="1:28" s="134" customFormat="1" ht="19.95" customHeight="1">
       <c r="A182" s="125" t="s">
         <v>579</v>
       </c>
@@ -20598,7 +20559,7 @@
         <v>776</v>
       </c>
       <c r="T182" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U182" s="132"/>
       <c r="V182" s="115"/>
@@ -20609,7 +20570,7 @@
       <c r="AA182" s="95"/>
       <c r="AB182" s="95"/>
     </row>
-    <row r="183" spans="1:28" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="183" spans="1:28" s="10" customFormat="1" ht="19.95" customHeight="1">
       <c r="A183" s="53" t="s">
         <v>579</v>
       </c>
@@ -20667,7 +20628,7 @@
       <c r="AA183" s="27"/>
       <c r="AB183" s="27"/>
     </row>
-    <row r="184" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="184" spans="1:28" ht="19.95" customHeight="1">
       <c r="A184" s="53" t="s">
         <v>579</v>
       </c>
@@ -20726,7 +20687,7 @@
         <v>776</v>
       </c>
       <c r="T184" s="27" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="U184" s="64"/>
       <c r="V184" s="66"/>
@@ -20737,7 +20698,7 @@
       <c r="AA184" s="61"/>
       <c r="AB184" s="61"/>
     </row>
-    <row r="185" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="185" spans="1:28" ht="19.95" customHeight="1">
       <c r="A185" s="53" t="s">
         <v>579</v>
       </c>
@@ -20793,7 +20754,7 @@
       <c r="AA185" s="61"/>
       <c r="AB185" s="61"/>
     </row>
-    <row r="186" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="186" spans="1:28" ht="19.95" customHeight="1">
       <c r="A186" s="53" t="s">
         <v>579</v>
       </c>
@@ -20863,7 +20824,7 @@
       <c r="AA186" s="61"/>
       <c r="AB186" s="61"/>
     </row>
-    <row r="187" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="187" spans="1:28" ht="19.95" customHeight="1">
       <c r="A187" s="53" t="s">
         <v>579</v>
       </c>
@@ -20933,7 +20894,7 @@
       <c r="AA187" s="61"/>
       <c r="AB187" s="61"/>
     </row>
-    <row r="188" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="188" spans="1:28" ht="19.95" customHeight="1">
       <c r="A188" s="53" t="s">
         <v>579</v>
       </c>
@@ -21003,7 +20964,7 @@
       <c r="AA188" s="61"/>
       <c r="AB188" s="61"/>
     </row>
-    <row r="189" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="189" spans="1:28" ht="19.95" customHeight="1">
       <c r="A189" s="53" t="s">
         <v>579</v>
       </c>
@@ -21073,7 +21034,7 @@
       <c r="AA189" s="61"/>
       <c r="AB189" s="61"/>
     </row>
-    <row r="190" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="190" spans="1:28" ht="19.95" customHeight="1">
       <c r="A190" s="53" t="s">
         <v>579</v>
       </c>
@@ -21131,7 +21092,7 @@
       <c r="AA190" s="61"/>
       <c r="AB190" s="61"/>
     </row>
-    <row r="191" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="191" spans="1:28" ht="19.95" customHeight="1">
       <c r="A191" s="53" t="s">
         <v>579</v>
       </c>
@@ -21157,7 +21118,7 @@
         <v>66</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J191" s="80">
         <v>43555</v>
@@ -21190,7 +21151,7 @@
         <v>776</v>
       </c>
       <c r="T191" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U191" s="61"/>
       <c r="V191" s="66"/>
@@ -21201,7 +21162,7 @@
       <c r="AA191" s="61"/>
       <c r="AB191" s="61"/>
     </row>
-    <row r="192" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="192" spans="1:28" ht="19.95" customHeight="1">
       <c r="A192" s="53" t="s">
         <v>579</v>
       </c>
@@ -21259,7 +21220,7 @@
       <c r="AA192" s="61"/>
       <c r="AB192" s="61"/>
     </row>
-    <row r="193" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="193" spans="1:28" ht="19.95" customHeight="1">
       <c r="A193" s="53" t="s">
         <v>579</v>
       </c>
@@ -21317,7 +21278,7 @@
       <c r="AA193" s="61"/>
       <c r="AB193" s="61"/>
     </row>
-    <row r="194" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="194" spans="1:28" ht="19.95" customHeight="1">
       <c r="A194" s="53" t="s">
         <v>579</v>
       </c>
@@ -21375,7 +21336,7 @@
       <c r="AA194" s="61"/>
       <c r="AB194" s="61"/>
     </row>
-    <row r="195" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="195" spans="1:28" ht="19.95" customHeight="1">
       <c r="A195" s="53" t="s">
         <v>579</v>
       </c>
@@ -21433,7 +21394,7 @@
       <c r="AA195" s="61"/>
       <c r="AB195" s="61"/>
     </row>
-    <row r="196" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="196" spans="1:28" ht="19.95" customHeight="1">
       <c r="A196" s="53" t="s">
         <v>579</v>
       </c>
@@ -21491,7 +21452,7 @@
       <c r="AA196" s="61"/>
       <c r="AB196" s="61"/>
     </row>
-    <row r="197" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="197" spans="1:28" ht="19.95" customHeight="1">
       <c r="A197" s="53" t="s">
         <v>579</v>
       </c>
@@ -21549,7 +21510,7 @@
       <c r="AA197" s="61"/>
       <c r="AB197" s="61"/>
     </row>
-    <row r="198" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="198" spans="1:28" ht="19.95" customHeight="1">
       <c r="A198" s="53" t="s">
         <v>579</v>
       </c>
@@ -21607,7 +21568,7 @@
       <c r="AA198" s="61"/>
       <c r="AB198" s="61"/>
     </row>
-    <row r="199" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="199" spans="1:28" ht="19.95" customHeight="1">
       <c r="A199" s="53" t="s">
         <v>579</v>
       </c>
@@ -21666,7 +21627,7 @@
         <v>776</v>
       </c>
       <c r="T199" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U199" s="64"/>
       <c r="V199" s="66"/>
@@ -21677,7 +21638,7 @@
       <c r="AA199" s="61"/>
       <c r="AB199" s="61"/>
     </row>
-    <row r="200" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="200" spans="1:28" ht="19.95" customHeight="1">
       <c r="A200" s="53" t="s">
         <v>579</v>
       </c>
@@ -21736,7 +21697,7 @@
         <v>776</v>
       </c>
       <c r="T200" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U200" s="64"/>
       <c r="V200" s="66"/>
@@ -21747,7 +21708,7 @@
       <c r="AA200" s="61"/>
       <c r="AB200" s="61"/>
     </row>
-    <row r="201" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="201" spans="1:28" ht="19.95" customHeight="1">
       <c r="A201" s="53" t="s">
         <v>579</v>
       </c>
@@ -21806,7 +21767,7 @@
         <v>776</v>
       </c>
       <c r="T201" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U201" s="64"/>
       <c r="V201" s="66"/>
@@ -21817,7 +21778,7 @@
       <c r="AA201" s="61"/>
       <c r="AB201" s="61"/>
     </row>
-    <row r="202" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="202" spans="1:28" ht="19.95" customHeight="1">
       <c r="A202" s="53" t="s">
         <v>579</v>
       </c>
@@ -21843,21 +21804,29 @@
         <v>66</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J202" s="80">
         <v>43555</v>
       </c>
-      <c r="K202" s="27"/>
-      <c r="L202" s="119"/>
-      <c r="M202" s="61"/>
+      <c r="K202" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="L202" s="119" t="s">
+        <v>811</v>
+      </c>
+      <c r="M202" s="61">
+        <v>8</v>
+      </c>
       <c r="N202" s="83"/>
-      <c r="O202" s="61"/>
+      <c r="O202" t="s">
+        <v>945</v>
+      </c>
       <c r="P202" s="61" t="s">
         <v>776</v>
       </c>
       <c r="Q202" s="61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R202" s="61" t="s">
         <v>776</v>
@@ -21875,7 +21844,7 @@
       <c r="AA202" s="61"/>
       <c r="AB202" s="61"/>
     </row>
-    <row r="203" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="203" spans="1:28" ht="19.95" customHeight="1">
       <c r="A203" s="53" t="s">
         <v>579</v>
       </c>
@@ -21934,7 +21903,7 @@
         <v>776</v>
       </c>
       <c r="T203" s="27" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="U203" s="64"/>
       <c r="V203" s="66"/>
@@ -21945,7 +21914,7 @@
       <c r="AA203" s="61"/>
       <c r="AB203" s="61"/>
     </row>
-    <row r="204" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="204" spans="1:28" ht="19.95" customHeight="1">
       <c r="A204" s="53" t="s">
         <v>579</v>
       </c>
@@ -22003,7 +21972,7 @@
       <c r="AA204" s="61"/>
       <c r="AB204" s="61"/>
     </row>
-    <row r="205" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="205" spans="1:28" ht="19.95" customHeight="1">
       <c r="A205" s="53" t="s">
         <v>579</v>
       </c>
@@ -22047,7 +22016,7 @@
         <v>43620</v>
       </c>
       <c r="O205" s="121" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="P205" s="61" t="s">
         <v>776</v>
@@ -22062,7 +22031,7 @@
         <v>776</v>
       </c>
       <c r="T205" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U205" s="64"/>
       <c r="V205" s="66"/>
@@ -22073,7 +22042,7 @@
       <c r="AA205" s="61"/>
       <c r="AB205" s="61"/>
     </row>
-    <row r="206" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="206" spans="1:28" ht="19.95" customHeight="1">
       <c r="A206" s="53" t="s">
         <v>579</v>
       </c>
@@ -22131,7 +22100,7 @@
       <c r="AA206" s="61"/>
       <c r="AB206" s="61"/>
     </row>
-    <row r="207" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="207" spans="1:28" ht="19.95" customHeight="1">
       <c r="A207" s="53" t="s">
         <v>579</v>
       </c>
@@ -22190,7 +22159,7 @@
         <v>776</v>
       </c>
       <c r="T207" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U207" s="64"/>
       <c r="V207" s="66"/>
@@ -22201,7 +22170,7 @@
       <c r="AA207" s="61"/>
       <c r="AB207" s="61"/>
     </row>
-    <row r="208" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="208" spans="1:28" ht="19.95" customHeight="1">
       <c r="A208" s="53" t="s">
         <v>579</v>
       </c>
@@ -22260,7 +22229,7 @@
         <v>776</v>
       </c>
       <c r="T208" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U208" s="64"/>
       <c r="V208" s="66"/>
@@ -22271,7 +22240,7 @@
       <c r="AA208" s="61"/>
       <c r="AB208" s="61"/>
     </row>
-    <row r="209" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="209" spans="1:28" ht="19.95" customHeight="1">
       <c r="A209" s="53" t="s">
         <v>579</v>
       </c>
@@ -22329,7 +22298,7 @@
       <c r="AA209" s="61"/>
       <c r="AB209" s="61"/>
     </row>
-    <row r="210" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="210" spans="1:28" ht="19.95" customHeight="1">
       <c r="A210" s="53" t="s">
         <v>579</v>
       </c>
@@ -22388,7 +22357,7 @@
         <v>776</v>
       </c>
       <c r="T210" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="U210" s="64"/>
       <c r="V210" s="66"/>
@@ -22399,7 +22368,7 @@
       <c r="AA210" s="61"/>
       <c r="AB210" s="61"/>
     </row>
-    <row r="211" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="211" spans="1:28" ht="19.95" customHeight="1">
       <c r="A211" s="53" t="s">
         <v>579</v>
       </c>
@@ -22471,7 +22440,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="A1:AL211"/>
+  <autoFilter ref="A1:AL211" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
@@ -22485,214 +22454,212 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:S211 V2:V211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V211 P2:S211" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W211" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$AK$5:$AK$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z211" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I190:I209 I2:I23 I25:I31 I33:I61 I63:I65 I68:I73 I75:I78 I85:I104 I106:I128 I130:I136 I138:I166 I168:I170 I173:I178 I180:I183 I211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I190:I209 I2:I23 I25:I31 I33:I61 I63:I65 I68:I73 I75:I78 I85:I104 I106:I128 I130:I136 I138:I166 I168:I170 I173:I178 I180:I183 I211" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I82:I84 I32 I62 I172 I74 I210 I105 I129 I137 I167 I67 I179 I187:I188 I80 I185">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 I82:I84 I32 I62 I172 I74 I210 I105 I129 I137 I167 I67 I179 I187:I188 I80 I185" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>-999999</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Revenue in millions (INR)" sqref="I81 I186"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Revenue in millions (INR)" sqref="I81 I186" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L97" r:id="rId1"/>
-    <hyperlink ref="L50" r:id="rId2"/>
-    <hyperlink ref="L155" r:id="rId3"/>
-    <hyperlink ref="L9" r:id="rId4"/>
-    <hyperlink ref="L114" r:id="rId5"/>
-    <hyperlink ref="L14" r:id="rId6"/>
-    <hyperlink ref="L119" r:id="rId7"/>
-    <hyperlink ref="L31" r:id="rId8"/>
-    <hyperlink ref="L136" r:id="rId9"/>
-    <hyperlink ref="L21" r:id="rId10"/>
-    <hyperlink ref="L126" r:id="rId11"/>
-    <hyperlink ref="L20" r:id="rId12"/>
-    <hyperlink ref="L125" r:id="rId13"/>
-    <hyperlink ref="L32" r:id="rId14"/>
-    <hyperlink ref="L137" r:id="rId15"/>
-    <hyperlink ref="L29" r:id="rId16"/>
-    <hyperlink ref="L134" r:id="rId17"/>
-    <hyperlink ref="L59" r:id="rId18"/>
-    <hyperlink ref="L164" r:id="rId19"/>
-    <hyperlink ref="L105" r:id="rId20"/>
-    <hyperlink ref="L210" r:id="rId21"/>
-    <hyperlink ref="L26" r:id="rId22"/>
-    <hyperlink ref="L131" r:id="rId23"/>
-    <hyperlink ref="L57" r:id="rId24"/>
-    <hyperlink ref="L162" r:id="rId25"/>
-    <hyperlink ref="L45" r:id="rId26"/>
-    <hyperlink ref="L150" r:id="rId27"/>
-    <hyperlink ref="L94" r:id="rId28"/>
-    <hyperlink ref="L199" r:id="rId29"/>
-    <hyperlink ref="L23" r:id="rId30"/>
-    <hyperlink ref="L128" r:id="rId31"/>
-    <hyperlink ref="L12" r:id="rId32"/>
-    <hyperlink ref="L39" r:id="rId33"/>
-    <hyperlink ref="L144" r:id="rId34"/>
-    <hyperlink ref="L35" r:id="rId35"/>
-    <hyperlink ref="L140" r:id="rId36"/>
-    <hyperlink ref="L22" r:id="rId37"/>
-    <hyperlink ref="L127" r:id="rId38"/>
-    <hyperlink ref="L102" r:id="rId39"/>
-    <hyperlink ref="L207" r:id="rId40"/>
-    <hyperlink ref="L146" r:id="rId41"/>
-    <hyperlink ref="L41" r:id="rId42"/>
-    <hyperlink ref="L83" r:id="rId43"/>
-    <hyperlink ref="L188" r:id="rId44"/>
-    <hyperlink ref="L81" r:id="rId45"/>
-    <hyperlink ref="L186" r:id="rId46"/>
-    <hyperlink ref="L66" r:id="rId47"/>
-    <hyperlink ref="L171" r:id="rId48"/>
-    <hyperlink ref="L103" r:id="rId49"/>
-    <hyperlink ref="L208" r:id="rId50"/>
-    <hyperlink ref="L117" r:id="rId51"/>
-    <hyperlink ref="L13" r:id="rId52"/>
-    <hyperlink ref="L118" r:id="rId53"/>
-    <hyperlink ref="L27" r:id="rId54"/>
-    <hyperlink ref="L132" r:id="rId55"/>
-    <hyperlink ref="L40" r:id="rId56"/>
-    <hyperlink ref="L145" r:id="rId57"/>
-    <hyperlink ref="L36" r:id="rId58"/>
-    <hyperlink ref="L141" r:id="rId59"/>
-    <hyperlink ref="L65" r:id="rId60"/>
-    <hyperlink ref="L170" r:id="rId61"/>
-    <hyperlink ref="L77" r:id="rId62"/>
-    <hyperlink ref="L182" r:id="rId63"/>
-    <hyperlink ref="L60" r:id="rId64"/>
-    <hyperlink ref="L106" r:id="rId65"/>
-    <hyperlink ref="L211" r:id="rId66"/>
-    <hyperlink ref="L28" r:id="rId67"/>
-    <hyperlink ref="L133" r:id="rId68"/>
-    <hyperlink ref="L37" r:id="rId69"/>
-    <hyperlink ref="L142" r:id="rId70"/>
-    <hyperlink ref="L38" r:id="rId71"/>
-    <hyperlink ref="L143" r:id="rId72"/>
-    <hyperlink ref="L34" r:id="rId73"/>
-    <hyperlink ref="L139" r:id="rId74"/>
-    <hyperlink ref="L24" r:id="rId75"/>
-    <hyperlink ref="L129" r:id="rId76"/>
-    <hyperlink ref="L95" r:id="rId77"/>
-    <hyperlink ref="L200" r:id="rId78"/>
-    <hyperlink ref="L84" r:id="rId79"/>
-    <hyperlink ref="L189" r:id="rId80"/>
-    <hyperlink ref="L82" r:id="rId81"/>
-    <hyperlink ref="L187" r:id="rId82"/>
-    <hyperlink ref="L51" r:id="rId83"/>
-    <hyperlink ref="L156" r:id="rId84"/>
-    <hyperlink ref="L48" r:id="rId85"/>
-    <hyperlink ref="L153" r:id="rId86"/>
-    <hyperlink ref="L96" r:id="rId87"/>
-    <hyperlink ref="L201" r:id="rId88"/>
-    <hyperlink ref="L33" r:id="rId89"/>
-    <hyperlink ref="L138" r:id="rId90"/>
-    <hyperlink ref="L15" r:id="rId91"/>
-    <hyperlink ref="L120" r:id="rId92"/>
-    <hyperlink ref="L87" r:id="rId93"/>
-    <hyperlink ref="L49" r:id="rId94"/>
-    <hyperlink ref="L154" r:id="rId95"/>
-    <hyperlink ref="L100" r:id="rId96"/>
-    <hyperlink ref="L205" r:id="rId97"/>
-    <hyperlink ref="L2" r:id="rId98"/>
-    <hyperlink ref="L107" r:id="rId99"/>
-    <hyperlink ref="L98" r:id="rId100"/>
-    <hyperlink ref="L203" r:id="rId101"/>
-    <hyperlink ref="L5" r:id="rId102"/>
-    <hyperlink ref="L110" r:id="rId103"/>
-    <hyperlink ref="L79" r:id="rId104"/>
-    <hyperlink ref="L184" r:id="rId105"/>
-    <hyperlink ref="L64" r:id="rId106"/>
-    <hyperlink ref="L169" r:id="rId107"/>
-    <hyperlink ref="L4" r:id="rId108"/>
-    <hyperlink ref="L109" r:id="rId109"/>
-    <hyperlink ref="L30" r:id="rId110"/>
-    <hyperlink ref="L135" r:id="rId111"/>
-    <hyperlink ref="L61" r:id="rId112"/>
-    <hyperlink ref="L166" r:id="rId113"/>
-    <hyperlink ref="L3" r:id="rId114"/>
-    <hyperlink ref="L108" r:id="rId115"/>
-    <hyperlink ref="L19" r:id="rId116"/>
-    <hyperlink ref="L124" r:id="rId117"/>
-    <hyperlink ref="L58" r:id="rId118"/>
-    <hyperlink ref="L163" r:id="rId119"/>
-    <hyperlink ref="L63" r:id="rId120"/>
-    <hyperlink ref="L168" r:id="rId121"/>
-    <hyperlink ref="L86" r:id="rId122"/>
-    <hyperlink ref="L191" r:id="rId123"/>
+    <hyperlink ref="L97" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="L50" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="L155" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="L114" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="L119" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="L31" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="L136" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="L21" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="L126" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="L20" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="L125" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="L32" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="L137" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="L29" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="L134" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L59" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="L164" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="L105" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="L210" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="L26" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="L131" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="L57" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="L162" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="L45" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="L150" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="L94" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="L199" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="L23" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="L128" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="L12" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="L39" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="L144" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="L35" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="L140" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="L22" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="L127" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="L102" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="L207" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="L146" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="L41" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="L83" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="L188" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="L81" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="L186" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="L66" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="L171" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="L103" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="L208" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="L117" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="L13" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="L118" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="L27" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="L132" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="L40" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="L145" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="L36" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="L141" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="L65" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="L170" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="L77" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="L182" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="L106" r:id="rId64" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="L211" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="L28" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="L133" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="L37" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="L142" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="L38" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="L143" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="L34" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="L139" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="L24" r:id="rId74" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="L129" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="L95" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="L200" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="L84" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="L189" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="L82" r:id="rId80" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="L187" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="L156" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="L48" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="L153" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="L96" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="L201" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="L33" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="L138" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="L15" r:id="rId89" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="L120" r:id="rId90" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="L49" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="L154" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="L100" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="L205" r:id="rId94" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="L2" r:id="rId95" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="L107" r:id="rId96" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="L98" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="L203" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="L5" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="L110" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="L79" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="L184" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="L64" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="L169" r:id="rId104" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="L4" r:id="rId105" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="L109" r:id="rId106" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="L30" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="L135" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="L61" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="L166" r:id="rId110" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="L3" r:id="rId111" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="L108" r:id="rId112" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="L19" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="L58" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="L163" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="L86" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="L191" r:id="rId117" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="L17" r:id="rId118" xr:uid="{55599FB6-E7A2-478E-B72D-EBD15E0BF6C4}"/>
+    <hyperlink ref="L124" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="L122" r:id="rId120" xr:uid="{FD27BC76-D6FD-442B-A803-8E44A68DC82F}"/>
+    <hyperlink ref="L51" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId124"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId122"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BP62"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="23.25" style="86" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="43.69921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="28.09765625" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="23.19921875" style="86" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="17.8984375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="13.69921875" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" customWidth="1"/>
     <col min="18" max="18" width="15.5" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
-    <col min="20" max="20" width="14.75" customWidth="1"/>
+    <col min="20" max="20" width="14.69921875" customWidth="1"/>
     <col min="21" max="21" width="17.5" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="11.75" customWidth="1"/>
-    <col min="26" max="26" width="13.375" customWidth="1"/>
-    <col min="27" max="37" width="10.75" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.69921875" customWidth="1"/>
+    <col min="26" max="26" width="13.3984375" customWidth="1"/>
+    <col min="27" max="37" width="10.69921875" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="2" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="0.25" customWidth="1"/>
-    <col min="40" max="40" width="15.75" customWidth="1"/>
-    <col min="41" max="41" width="13.875" customWidth="1"/>
-    <col min="43" max="43" width="18.625" style="86" customWidth="1"/>
-    <col min="44" max="44" width="17.875" customWidth="1"/>
-    <col min="45" max="45" width="16.25" customWidth="1"/>
-    <col min="47" max="47" width="11.875" customWidth="1"/>
-    <col min="48" max="48" width="15.375" customWidth="1"/>
-    <col min="49" max="49" width="25.75" customWidth="1"/>
-    <col min="50" max="50" width="31.375" style="75" customWidth="1"/>
-    <col min="51" max="51" width="34.75" customWidth="1"/>
-    <col min="52" max="52" width="32.75" customWidth="1"/>
+    <col min="39" max="39" width="0.19921875" customWidth="1"/>
+    <col min="40" max="40" width="15.69921875" customWidth="1"/>
+    <col min="41" max="41" width="13.8984375" customWidth="1"/>
+    <col min="43" max="43" width="18.59765625" style="86" customWidth="1"/>
+    <col min="44" max="44" width="17.8984375" customWidth="1"/>
+    <col min="45" max="45" width="16.19921875" customWidth="1"/>
+    <col min="47" max="47" width="11.8984375" customWidth="1"/>
+    <col min="48" max="48" width="15.3984375" customWidth="1"/>
+    <col min="49" max="49" width="25.69921875" customWidth="1"/>
+    <col min="50" max="50" width="31.3984375" style="75" customWidth="1"/>
+    <col min="51" max="51" width="34.69921875" customWidth="1"/>
+    <col min="52" max="52" width="32.69921875" customWidth="1"/>
     <col min="53" max="53" width="31" customWidth="1"/>
-    <col min="57" max="57" width="31.75" customWidth="1"/>
+    <col min="57" max="57" width="31.69921875" customWidth="1"/>
     <col min="59" max="59" width="28" customWidth="1"/>
-    <col min="61" max="61" width="27.75" customWidth="1"/>
+    <col min="61" max="61" width="27.69921875" customWidth="1"/>
     <col min="62" max="62" width="29" customWidth="1"/>
-    <col min="66" max="66" width="23.75" customWidth="1"/>
-    <col min="67" max="67" width="30.75" customWidth="1"/>
-    <col min="68" max="68" width="29.75" customWidth="1"/>
+    <col min="66" max="66" width="23.69921875" customWidth="1"/>
+    <col min="67" max="67" width="30.69921875" customWidth="1"/>
+    <col min="68" max="68" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:68" s="10" customFormat="1" ht="18">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -22872,11 +22839,11 @@
       <c r="BK1" s="50"/>
       <c r="BL1" s="50"/>
       <c r="BM1" s="3"/>
-      <c r="BN1" s="163" t="s">
+      <c r="BN1" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="BO1" s="164"/>
-      <c r="BP1" s="165"/>
+      <c r="BO1" s="170"/>
+      <c r="BP1" s="171"/>
     </row>
     <row r="2" spans="1:68" s="19" customFormat="1">
       <c r="A2" s="18" t="s">
@@ -23000,7 +22967,7 @@
       <c r="BO2" s="25"/>
       <c r="BP2" s="25"/>
     </row>
-    <row r="3" spans="1:68" s="19" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:68" s="19" customFormat="1" ht="16.2" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>579</v>
       </c>
@@ -23126,7 +23093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="91" customFormat="1" ht="16.5" thickBot="1">
+    <row r="4" spans="1:68" s="91" customFormat="1" ht="16.2" thickBot="1">
       <c r="A4" s="90" t="s">
         <v>579</v>
       </c>
@@ -23227,7 +23194,7 @@
         <v>776</v>
       </c>
       <c r="AW4" s="96" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AX4" s="97"/>
       <c r="AY4" s="70" t="s">
@@ -23237,7 +23204,7 @@
         <v>47</v>
       </c>
       <c r="BA4" s="91" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BC4" s="100"/>
       <c r="BG4" s="140" t="s">
@@ -24416,7 +24383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="19" customFormat="1" ht="16.5" thickBot="1">
+    <row r="15" spans="1:68" s="19" customFormat="1" ht="16.2" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>579</v>
       </c>
@@ -24544,7 +24511,7 @@
       <c r="BK15" s="37"/>
       <c r="BL15" s="37"/>
     </row>
-    <row r="16" spans="1:68" s="19" customFormat="1" ht="16.5" thickBot="1">
+    <row r="16" spans="1:68" s="19" customFormat="1" ht="16.2" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>579</v>
       </c>
@@ -24656,7 +24623,7 @@
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
     </row>
-    <row r="17" spans="1:64" s="19" customFormat="1" ht="16.5" thickBot="1">
+    <row r="17" spans="1:64" s="19" customFormat="1" ht="16.2" thickBot="1">
       <c r="A17" s="18" t="s">
         <v>579</v>
       </c>
@@ -26398,7 +26365,7 @@
       <c r="BK31" s="37"/>
       <c r="BL31" s="37"/>
     </row>
-    <row r="32" spans="1:64" s="19" customFormat="1" ht="18.75">
+    <row r="32" spans="1:64" s="19" customFormat="1" ht="18">
       <c r="A32" s="22" t="s">
         <v>8</v>
       </c>
@@ -26913,7 +26880,7 @@
         <v>776</v>
       </c>
       <c r="AW35" s="96" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AX35" s="97"/>
       <c r="AY35" s="98"/>
@@ -29723,6 +29690,10 @@
       <c r="BP62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BP62" xr:uid="{36EC80A2-13E0-4060-B663-6F3D8FEA83ED}">
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="66" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="BN1:BP1"/>
   </mergeCells>
@@ -29855,81 +29826,81 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:AM11 J42:AM42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:AM11 J42:AM42" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J50:AM51 J19:AM20 J26:X27 Q5:Q8 Q36:U39 AA35:AM40 J35:J40 U5:U8 W5:X8 R4:T9 V4:V9 O4:P9 Y4:AM9 J57:Z58 W36:Z39 V35:V40 O35:P40 J5:N8 Y25:AM27 AA56:AM58 K36:N39">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J50:AM51 J19:AM20 J26:X27 Q5:Q8 Q36:U39 AA35:AM40 J35:J40 U5:U8 W5:X8 R4:T9 V4:V9 O4:P9 Y4:AM9 J57:Z58 W36:Z39 V35:V40 O35:P40 J5:N8 Y25:AM27 AA56:AM58 K36:N39" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-99999999</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA17:AM18 AA48:AM49">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA17:AM18 AA48:AM49" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>3654</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS33:AV62 AS2:AV31 AY33:AY62 AY2:AY31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS33:AV62 AS2:AV31 AY33:AY62 AY2:AY31" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ31 AZ33:AZ62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ31 AZ33:AZ62" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>$BO$4:$BO$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC33:BC62 BC2:BC31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC33:BC62 BC2:BC31" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:AM34 J10:AM10 J41:AM41 J43:AM47 J52:AM55 J2:AM3 J12:AM16 J21:AM24 J28:AM31 J59:AM62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:AM34 J10:AM10 J41:AM41 J43:AM47 J52:AM55 J2:AM3 J12:AM16 J21:AM24 J28:AM31 J59:AM62" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T17 J17:L17 M17:N18 O17 P17:S18 U17:Z18 J48:K48 L48:L49 M48:O48 P48:T49 V48:Z49 U48">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T17 J17:L17 M17:N18 O17 P17:S18 U17:Z18 J48:K48 L48:L49 M48:O48 P48:T49 V48:Z49 U48" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>12785</formula1>
       <formula2>47847</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z56">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z56" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>20</formula1>
       <formula2>90</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AO2" r:id="rId1"/>
-    <hyperlink ref="AO3" r:id="rId2"/>
-    <hyperlink ref="AO4" r:id="rId3"/>
-    <hyperlink ref="AO33" r:id="rId4"/>
-    <hyperlink ref="AO34" r:id="rId5"/>
-    <hyperlink ref="AO35" r:id="rId6"/>
-    <hyperlink ref="AO9" r:id="rId7"/>
-    <hyperlink ref="AO11" r:id="rId8"/>
-    <hyperlink ref="AO42" r:id="rId9"/>
-    <hyperlink ref="AO40" r:id="rId10"/>
-    <hyperlink ref="AO12" r:id="rId11"/>
-    <hyperlink ref="AO13" r:id="rId12"/>
-    <hyperlink ref="AO15" r:id="rId13"/>
-    <hyperlink ref="AO43" r:id="rId14"/>
-    <hyperlink ref="AO44" r:id="rId15"/>
-    <hyperlink ref="AO46" r:id="rId16"/>
-    <hyperlink ref="AO17" r:id="rId17"/>
-    <hyperlink ref="AO18" r:id="rId18"/>
-    <hyperlink ref="AO48" r:id="rId19"/>
-    <hyperlink ref="AO49" r:id="rId20"/>
-    <hyperlink ref="AO50" r:id="rId21"/>
-    <hyperlink ref="AO19" r:id="rId22"/>
-    <hyperlink ref="AO20" r:id="rId23"/>
-    <hyperlink ref="AO51" r:id="rId24"/>
-    <hyperlink ref="AO21" r:id="rId25"/>
-    <hyperlink ref="AO22" r:id="rId26"/>
-    <hyperlink ref="AO23" r:id="rId27"/>
-    <hyperlink ref="AO24" r:id="rId28"/>
-    <hyperlink ref="AO52" r:id="rId29"/>
-    <hyperlink ref="AO53" r:id="rId30"/>
-    <hyperlink ref="AO54" r:id="rId31"/>
-    <hyperlink ref="AO55" r:id="rId32"/>
-    <hyperlink ref="AO25" r:id="rId33"/>
-    <hyperlink ref="AO56" r:id="rId34"/>
-    <hyperlink ref="AO26" r:id="rId35"/>
-    <hyperlink ref="AO27" r:id="rId36"/>
-    <hyperlink ref="AO57" r:id="rId37"/>
-    <hyperlink ref="AO58" r:id="rId38"/>
-    <hyperlink ref="AO29" r:id="rId39"/>
-    <hyperlink ref="AO28" r:id="rId40"/>
-    <hyperlink ref="AO60" r:id="rId41"/>
-    <hyperlink ref="AO59" r:id="rId42"/>
-    <hyperlink ref="AO31" r:id="rId43"/>
-    <hyperlink ref="AO62" r:id="rId44"/>
+    <hyperlink ref="AO2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="AO3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="AO4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="AO33" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="AO34" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="AO35" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="AO9" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="AO11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="AO42" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="AO40" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="AO12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="AO13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="AO15" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="AO43" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="AO44" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="AO46" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="AO17" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="AO18" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="AO48" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="AO49" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="AO50" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="AO19" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="AO20" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="AO51" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="AO21" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="AO22" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="AO23" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="AO24" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="AO52" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="AO53" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="AO54" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="AO55" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="AO25" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="AO56" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="AO26" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="AO27" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="AO57" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="AO58" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="AO29" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="AO28" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="AO60" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="AO59" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="AO31" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="AO62" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
@@ -29937,40 +29908,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="86" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="86" customWidth="1"/>
     <col min="12" max="18" width="12.5" customWidth="1"/>
-    <col min="32" max="32" width="17.25" customWidth="1"/>
-    <col min="33" max="33" width="21.25" style="86" customWidth="1"/>
+    <col min="32" max="32" width="17.19921875" customWidth="1"/>
+    <col min="33" max="33" width="21.19921875" style="86" customWidth="1"/>
     <col min="34" max="34" width="25" customWidth="1"/>
-    <col min="35" max="35" width="18.75" customWidth="1"/>
-    <col min="36" max="36" width="25.25" customWidth="1"/>
+    <col min="35" max="35" width="18.69921875" customWidth="1"/>
+    <col min="36" max="36" width="25.19921875" customWidth="1"/>
     <col min="37" max="37" width="23" customWidth="1"/>
-    <col min="38" max="38" width="26.25" customWidth="1"/>
-    <col min="39" max="39" width="32.75" customWidth="1"/>
-    <col min="40" max="40" width="27.75" customWidth="1"/>
-    <col min="41" max="41" width="16.125" style="77" customWidth="1"/>
+    <col min="38" max="38" width="26.19921875" customWidth="1"/>
+    <col min="39" max="39" width="32.69921875" customWidth="1"/>
+    <col min="40" max="40" width="27.69921875" customWidth="1"/>
+    <col min="41" max="41" width="16.09765625" style="77" customWidth="1"/>
     <col min="43" max="43" width="30.5" customWidth="1"/>
     <col min="44" max="44" width="25" customWidth="1"/>
     <col min="45" max="45" width="24.5" customWidth="1"/>
-    <col min="46" max="46" width="24.75" customWidth="1"/>
-    <col min="47" max="47" width="25.75" customWidth="1"/>
-    <col min="48" max="54" width="25.25" customWidth="1"/>
-    <col min="56" max="56" width="29.25" customWidth="1"/>
+    <col min="46" max="46" width="24.69921875" customWidth="1"/>
+    <col min="47" max="47" width="25.69921875" customWidth="1"/>
+    <col min="48" max="54" width="25.19921875" customWidth="1"/>
+    <col min="56" max="56" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -30002,7 +29973,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>669</v>
@@ -30128,11 +30099,11 @@
       </c>
       <c r="BA1" s="35"/>
       <c r="BB1" s="35"/>
-      <c r="BC1" s="166" t="s">
+      <c r="BC1" s="172" t="s">
         <v>746</v>
       </c>
-      <c r="BD1" s="166"/>
-      <c r="BE1" s="166"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="18" t="s">
@@ -30227,7 +30198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="16.5" thickBot="1">
+    <row r="3" spans="1:58" ht="16.2" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>579</v>
       </c>
@@ -30316,7 +30287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="16.5" thickBot="1">
+    <row r="4" spans="1:58" ht="16.2" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>579</v>
       </c>
@@ -31158,7 +31129,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>669</v>
@@ -31494,7 +31465,7 @@
       <c r="BD14" s="19"/>
       <c r="BE14" s="19"/>
     </row>
-    <row r="15" spans="1:58" ht="16.5" thickBot="1">
+    <row r="15" spans="1:58" ht="16.2" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>579</v>
       </c>
@@ -31590,7 +31561,7 @@
       <c r="BD15" s="19"/>
       <c r="BE15" s="19"/>
     </row>
-    <row r="16" spans="1:58" ht="16.5" thickBot="1">
+    <row r="16" spans="1:58" ht="16.2" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>579</v>
       </c>
@@ -31686,7 +31657,7 @@
       <c r="BD16" s="19"/>
       <c r="BE16" s="19"/>
     </row>
-    <row r="17" spans="1:57" ht="16.5" thickBot="1">
+    <row r="17" spans="1:57" ht="16.2" thickBot="1">
       <c r="A17" s="18" t="s">
         <v>579</v>
       </c>
@@ -32254,25 +32225,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:AC10 J21:AC21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:AC10 J21:AC21" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:AC17 J2:AC6 J11:AC11 J9:AC9 J20:AC20 J22:AC22">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:AC17 J2:AC6 J11:AC11 J9:AC9 J20:AC20 J22:AC22" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>-99999999</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO13:AO22 AI13:AL22 AI2:AL11 AO2:AO11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO13:AO22 AI13:AL22 AI2:AL11 AO2:AO11" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS11 AS13:AS22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS11 AS13:AS22" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP22" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>$BD$2:$BD$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:AC8 J18:AC19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:AC8 J18:AC19" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP11 AP13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP11 AP13" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>$BD$2:$BD$12</formula1>
     </dataValidation>
   </dataValidations>
